--- a/sortie/Bordereau_corrigé.xlsx
+++ b/sortie/Bordereau_corrigé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F557"/>
+  <dimension ref="A1:E557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Prix unitaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>::auto_unique_id::</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,11 +480,6 @@
       <c r="E2" t="n">
         <v>44.45</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,11 +501,6 @@
       <c r="E3" t="n">
         <v>44.45</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,11 +522,6 @@
       <c r="E4" t="n">
         <v>44.45</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -563,11 +543,6 @@
       <c r="E5" t="n">
         <v>44.45</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,11 +564,6 @@
       <c r="E6" t="n">
         <v>44.45</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -615,11 +585,6 @@
       <c r="E7" t="n">
         <v>44.45</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -641,11 +606,6 @@
       <c r="E8" t="n">
         <v>73.44</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -667,11 +627,6 @@
       <c r="E9" t="n">
         <v>73.44</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -693,11 +648,6 @@
       <c r="E10" t="n">
         <v>53.28999999999999</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -719,11 +669,6 @@
       <c r="E11" t="n">
         <v>53.28999999999999</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -745,11 +690,6 @@
       <c r="E12" t="n">
         <v>53.28999999999999</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -771,11 +711,6 @@
       <c r="E13" t="n">
         <v>53.28999999999999</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -797,11 +732,6 @@
       <c r="E14" t="n">
         <v>53.28999999999999</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -823,11 +753,6 @@
       <c r="E15" t="n">
         <v>53.25</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -849,11 +774,6 @@
       <c r="E16" t="n">
         <v>50.55</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -875,11 +795,6 @@
       <c r="E17" t="n">
         <v>50.55</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -901,11 +816,6 @@
       <c r="E18" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -927,11 +837,6 @@
       <c r="E19" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -953,11 +858,6 @@
       <c r="E20" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -979,11 +879,6 @@
       <c r="E21" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1005,11 +900,6 @@
       <c r="E22" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1031,11 +921,6 @@
       <c r="E23" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1057,11 +942,6 @@
       <c r="E24" t="n">
         <v>61.41</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1083,11 +963,6 @@
       <c r="E25" t="n">
         <v>61.41</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1109,11 +984,6 @@
       <c r="E26" t="n">
         <v>61.41</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1135,11 +1005,6 @@
       <c r="E27" t="n">
         <v>61.41</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1161,11 +1026,6 @@
       <c r="E28" t="n">
         <v>47.9</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1187,11 +1047,6 @@
       <c r="E29" t="n">
         <v>47.9</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1213,11 +1068,6 @@
       <c r="E30" t="n">
         <v>47.9</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1239,11 +1089,6 @@
       <c r="E31" t="n">
         <v>47.9</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1265,11 +1110,6 @@
       <c r="E32" t="n">
         <v>47.9</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1291,11 +1131,6 @@
       <c r="E33" t="n">
         <v>49.6</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1317,11 +1152,6 @@
       <c r="E34" t="n">
         <v>49.6</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1343,11 +1173,6 @@
       <c r="E35" t="n">
         <v>49.6</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1369,11 +1194,6 @@
       <c r="E36" t="n">
         <v>63.59</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1395,11 +1215,6 @@
       <c r="E37" t="n">
         <v>63.59</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1421,11 +1236,6 @@
       <c r="E38" t="n">
         <v>45.8</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1447,11 +1257,6 @@
       <c r="E39" t="n">
         <v>63.59</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1473,11 +1278,6 @@
       <c r="E40" t="n">
         <v>63.59</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1499,11 +1299,6 @@
       <c r="E41" t="n">
         <v>23.81</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1525,11 +1320,6 @@
       <c r="E42" t="n">
         <v>23.81</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1551,11 +1341,6 @@
       <c r="E43" t="n">
         <v>23.81</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1577,11 +1362,6 @@
       <c r="E44" t="n">
         <v>23.81</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1603,11 +1383,6 @@
       <c r="E45" t="n">
         <v>23.81</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1629,11 +1404,6 @@
       <c r="E46" t="n">
         <v>23.81</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1655,11 +1425,6 @@
       <c r="E47" t="n">
         <v>23.81</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1681,11 +1446,6 @@
       <c r="E48" t="n">
         <v>23.81</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1707,11 +1467,6 @@
       <c r="E49" t="n">
         <v>122.17</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1733,11 +1488,6 @@
       <c r="E50" t="n">
         <v>122.17</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1759,11 +1509,6 @@
       <c r="E51" t="n">
         <v>183.25</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1785,11 +1530,6 @@
       <c r="E52" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1811,11 +1551,6 @@
       <c r="E53" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1837,11 +1572,6 @@
       <c r="E54" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1863,11 +1593,6 @@
       <c r="E55" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1889,11 +1614,6 @@
       <c r="E56" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1915,11 +1635,6 @@
       <c r="E57" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1941,11 +1656,6 @@
       <c r="E58" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1967,11 +1677,6 @@
       <c r="E59" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1993,11 +1698,6 @@
       <c r="E60" t="n">
         <v>86.41</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2019,11 +1719,6 @@
       <c r="E61" t="n">
         <v>86.41</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2045,11 +1740,6 @@
       <c r="E62" t="n">
         <v>45.8</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2071,11 +1761,6 @@
       <c r="E63" t="n">
         <v>29.83</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2097,11 +1782,6 @@
       <c r="E64" t="n">
         <v>29.83</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2123,11 +1803,6 @@
       <c r="E65" t="n">
         <v>29.83</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2149,11 +1824,6 @@
       <c r="E66" t="n">
         <v>29.83</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2175,11 +1845,6 @@
       <c r="E67" t="n">
         <v>44.74</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2201,11 +1866,6 @@
       <c r="E68" t="n">
         <v>72.95</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2227,11 +1887,6 @@
       <c r="E69" t="n">
         <v>72.95</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2253,11 +1908,6 @@
       <c r="E70" t="n">
         <v>72.95</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2279,11 +1929,6 @@
       <c r="E71" t="n">
         <v>72.95999999999999</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2305,11 +1950,6 @@
       <c r="E72" t="n">
         <v>49.05</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2331,11 +1971,6 @@
       <c r="E73" t="n">
         <v>31.12</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2357,11 +1992,6 @@
       <c r="E74" t="n">
         <v>46.68</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2383,11 +2013,6 @@
       <c r="E75" t="n">
         <v>31.12</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2409,11 +2034,6 @@
       <c r="E76" t="n">
         <v>46.68</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2435,11 +2055,6 @@
       <c r="E77" t="n">
         <v>46.68</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2461,11 +2076,6 @@
       <c r="E78" t="n">
         <v>46.68</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2487,11 +2097,6 @@
       <c r="E79" t="n">
         <v>61.41</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2513,11 +2118,6 @@
       <c r="E80" t="n">
         <v>61.4</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2539,11 +2139,6 @@
       <c r="E81" t="n">
         <v>61.41</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2565,11 +2160,6 @@
       <c r="E82" t="n">
         <v>61.41</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2591,11 +2181,6 @@
       <c r="E83" t="n">
         <v>163.68</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2617,11 +2202,6 @@
       <c r="E84" t="n">
         <v>124.94</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2643,11 +2223,6 @@
       <c r="E85" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2669,11 +2244,6 @@
       <c r="E86" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2695,11 +2265,6 @@
       <c r="E87" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2721,11 +2286,6 @@
       <c r="E88" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2747,11 +2307,6 @@
       <c r="E89" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2773,11 +2328,6 @@
       <c r="E90" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2799,11 +2349,6 @@
       <c r="E91" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2825,11 +2370,6 @@
       <c r="E92" t="n">
         <v>34.77</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2851,11 +2391,6 @@
       <c r="E93" t="n">
         <v>52.15</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2877,11 +2412,6 @@
       <c r="E94" t="n">
         <v>64.11</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2903,11 +2433,6 @@
       <c r="E95" t="n">
         <v>64.11</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2929,11 +2454,6 @@
       <c r="E96" t="n">
         <v>64.12</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2955,11 +2475,6 @@
       <c r="E97" t="n">
         <v>64.11</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2981,11 +2496,6 @@
       <c r="E98" t="n">
         <v>50.67</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3007,11 +2517,6 @@
       <c r="E99" t="n">
         <v>50.68</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3033,11 +2538,6 @@
       <c r="E100" t="n">
         <v>50.68</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3059,11 +2559,6 @@
       <c r="E101" t="n">
         <v>50.68</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3085,11 +2580,6 @@
       <c r="E102" t="n">
         <v>557.16</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3111,11 +2601,6 @@
       <c r="E103" t="n">
         <v>668.6900000000001</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3137,11 +2622,6 @@
       <c r="E104" t="n">
         <v>860.22</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3163,11 +2643,6 @@
       <c r="E105" t="n">
         <v>956.22</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3189,11 +2664,6 @@
       <c r="E106" t="n">
         <v>430.11</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3215,11 +2685,6 @@
       <c r="E107" t="n">
         <v>956.22</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3241,11 +2706,6 @@
       <c r="E108" t="n">
         <v>49.9</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3267,11 +2727,6 @@
       <c r="E109" t="n">
         <v>49.91</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3293,11 +2748,6 @@
       <c r="E110" t="n">
         <v>49.9</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3319,11 +2769,6 @@
       <c r="E111" t="n">
         <v>80.8</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3345,11 +2790,6 @@
       <c r="E112" t="n">
         <v>430.11</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3371,11 +2811,6 @@
       <c r="E113" t="n">
         <v>557.16</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3397,11 +2832,6 @@
       <c r="E114" t="n">
         <v>118.12</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3423,11 +2853,6 @@
       <c r="E115" t="n">
         <v>118.12</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3449,11 +2874,6 @@
       <c r="E116" t="n">
         <v>668.6900000000001</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3475,11 +2895,6 @@
       <c r="E117" t="n">
         <v>430.11</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3501,11 +2916,6 @@
       <c r="E118" t="n">
         <v>430.11</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3527,11 +2937,6 @@
       <c r="E119" t="n">
         <v>668.6900000000001</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3553,11 +2958,6 @@
       <c r="E120" t="n">
         <v>557.16</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3579,11 +2979,6 @@
       <c r="E121" t="n">
         <v>557.16</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3605,11 +3000,6 @@
       <c r="E122" t="n">
         <v>668.6900000000001</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3631,11 +3021,6 @@
       <c r="E123" t="n">
         <v>28.09</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3657,11 +3042,6 @@
       <c r="E124" t="n">
         <v>569.99</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3683,11 +3063,6 @@
       <c r="E125" t="n">
         <v>83.95999999999999</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3709,11 +3084,6 @@
       <c r="E126" t="n">
         <v>246.68</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3735,11 +3105,6 @@
       <c r="E127" t="n">
         <v>246.68</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3761,11 +3126,6 @@
       <c r="E128" t="n">
         <v>30.32</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3787,11 +3147,6 @@
       <c r="E129" t="n">
         <v>330.2</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3813,11 +3168,6 @@
       <c r="E130" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3839,11 +3189,6 @@
       <c r="E131" t="n">
         <v>330.2</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3865,11 +3210,6 @@
       <c r="E132" t="n">
         <v>330.2</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3891,11 +3231,6 @@
       <c r="E133" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3917,11 +3252,6 @@
       <c r="E134" t="n">
         <v>330.2</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3943,11 +3273,6 @@
       <c r="E135" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3969,11 +3294,6 @@
       <c r="E136" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3995,11 +3315,6 @@
       <c r="E137" t="n">
         <v>330.2</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4021,11 +3336,6 @@
       <c r="E138" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4047,11 +3357,6 @@
       <c r="E139" t="n">
         <v>98.43000000000001</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4073,11 +3378,6 @@
       <c r="E140" t="n">
         <v>29.11</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4099,11 +3399,6 @@
       <c r="E141" t="n">
         <v>408.11</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4125,11 +3420,6 @@
       <c r="E142" t="n">
         <v>128.84</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4151,11 +3441,6 @@
       <c r="E143" t="n">
         <v>128.84</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4177,11 +3462,6 @@
       <c r="E144" t="n">
         <v>128.84</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4203,11 +3483,6 @@
       <c r="E145" t="n">
         <v>128.84</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4229,11 +3504,6 @@
       <c r="E146" t="n">
         <v>128.84</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4255,11 +3525,6 @@
       <c r="E147" t="n">
         <v>144.22</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4281,11 +3546,6 @@
       <c r="E148" t="n">
         <v>144.22</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4307,11 +3567,6 @@
       <c r="E149" t="n">
         <v>101.29</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4333,11 +3588,6 @@
       <c r="E150" t="n">
         <v>101.29</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4359,11 +3609,6 @@
       <c r="E151" t="n">
         <v>119.53</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4385,11 +3630,6 @@
       <c r="E152" t="n">
         <v>119.53</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4411,11 +3651,6 @@
       <c r="E153" t="n">
         <v>67.19</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4437,11 +3672,6 @@
       <c r="E154" t="n">
         <v>67.19</v>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4463,11 +3693,6 @@
       <c r="E155" t="n">
         <v>67.19</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4489,11 +3714,6 @@
       <c r="E156" t="n">
         <v>67.19</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4515,11 +3735,6 @@
       <c r="E157" t="n">
         <v>67.19</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4541,11 +3756,6 @@
       <c r="E158" t="n">
         <v>67.19</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4567,11 +3777,6 @@
       <c r="E159" t="n">
         <v>67.19</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4593,11 +3798,6 @@
       <c r="E160" t="n">
         <v>67.19</v>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4619,11 +3819,6 @@
       <c r="E161" t="n">
         <v>164.32</v>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4645,11 +3840,6 @@
       <c r="E162" t="n">
         <v>164.32</v>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4671,11 +3861,6 @@
       <c r="E163" t="n">
         <v>164.32</v>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4697,11 +3882,6 @@
       <c r="E164" t="n">
         <v>344.3800000000001</v>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4723,11 +3903,6 @@
       <c r="E165" t="n">
         <v>81.13</v>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4749,11 +3924,6 @@
       <c r="E166" t="n">
         <v>414.61</v>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4775,11 +3945,6 @@
       <c r="E167" t="n">
         <v>414.61</v>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4801,11 +3966,6 @@
       <c r="E168" t="n">
         <v>414.61</v>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4827,11 +3987,6 @@
       <c r="E169" t="n">
         <v>414.61</v>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4853,11 +4008,6 @@
       <c r="E170" t="n">
         <v>414.61</v>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4879,11 +4029,6 @@
       <c r="E171" t="n">
         <v>265.1</v>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4905,11 +4050,6 @@
       <c r="E172" t="n">
         <v>265.1</v>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4931,11 +4071,6 @@
       <c r="E173" t="n">
         <v>276.12</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4957,11 +4092,6 @@
       <c r="E174" t="n">
         <v>1335.75</v>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4983,11 +4113,6 @@
       <c r="E175" t="n">
         <v>272.49</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5009,11 +4134,6 @@
       <c r="E176" t="n">
         <v>272.49</v>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5035,11 +4155,6 @@
       <c r="E177" t="n">
         <v>272.49</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5061,11 +4176,6 @@
       <c r="E178" t="n">
         <v>272.49</v>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5087,11 +4197,6 @@
       <c r="E179" t="n">
         <v>272.49</v>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5113,11 +4218,6 @@
       <c r="E180" t="n">
         <v>82.14999999999999</v>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5139,11 +4239,6 @@
       <c r="E181" t="n">
         <v>82.14999999999999</v>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5165,11 +4260,6 @@
       <c r="E182" t="n">
         <v>21.99</v>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5191,11 +4281,6 @@
       <c r="E183" t="n">
         <v>21.99</v>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5217,11 +4302,6 @@
       <c r="E184" t="n">
         <v>21.99</v>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5243,11 +4323,6 @@
       <c r="E185" t="n">
         <v>21.99</v>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5269,11 +4344,6 @@
       <c r="E186" t="n">
         <v>21.99</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5295,11 +4365,6 @@
       <c r="E187" t="n">
         <v>21.99</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5321,11 +4386,6 @@
       <c r="E188" t="n">
         <v>1297.44</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5347,11 +4407,6 @@
       <c r="E189" t="n">
         <v>3221.23</v>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5373,11 +4428,6 @@
       <c r="E190" t="n">
         <v>1512.51</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5399,11 +4449,6 @@
       <c r="E191" t="n">
         <v>463.43</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5425,11 +4470,6 @@
       <c r="E192" t="n">
         <v>551.99</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5451,11 +4491,6 @@
       <c r="E193" t="n">
         <v>551.99</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5477,11 +4512,6 @@
       <c r="E194" t="n">
         <v>1512.51</v>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5503,11 +4533,6 @@
       <c r="E195" t="n">
         <v>281.78</v>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5529,11 +4554,6 @@
       <c r="E196" t="n">
         <v>281.78</v>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5555,11 +4575,6 @@
       <c r="E197" t="n">
         <v>281.78</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5581,11 +4596,6 @@
       <c r="E198" t="n">
         <v>281.78</v>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5607,11 +4617,6 @@
       <c r="E199" t="n">
         <v>281.78</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5633,11 +4638,6 @@
       <c r="E200" t="n">
         <v>281.78</v>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5659,11 +4659,6 @@
       <c r="E201" t="n">
         <v>281.78</v>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5685,11 +4680,6 @@
       <c r="E202" t="n">
         <v>353.78</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5711,11 +4701,6 @@
       <c r="E203" t="n">
         <v>353.78</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5737,11 +4722,6 @@
       <c r="E204" t="n">
         <v>353.78</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5763,11 +4743,6 @@
       <c r="E205" t="n">
         <v>3097.6</v>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5789,11 +4764,6 @@
       <c r="E206" t="n">
         <v>3470.85</v>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5815,11 +4785,6 @@
       <c r="E207" t="n">
         <v>3470.85</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5841,11 +4806,6 @@
       <c r="E208" t="n">
         <v>3470.85</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5867,11 +4827,6 @@
       <c r="E209" t="n">
         <v>23.81</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5893,11 +4848,6 @@
       <c r="E210" t="n">
         <v>395.93</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5919,11 +4869,6 @@
       <c r="E211" t="n">
         <v>395.93</v>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5945,11 +4890,6 @@
       <c r="E212" t="n">
         <v>320</v>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5971,11 +4911,6 @@
       <c r="E213" t="n">
         <v>320</v>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5997,11 +4932,6 @@
       <c r="E214" t="n">
         <v>290.43</v>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6023,11 +4953,6 @@
       <c r="E215" t="n">
         <v>290.43</v>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6049,11 +4974,6 @@
       <c r="E216" t="n">
         <v>21.62</v>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6075,11 +4995,6 @@
       <c r="E217" t="n">
         <v>21.62</v>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6101,11 +5016,6 @@
       <c r="E218" t="n">
         <v>21.62</v>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6127,11 +5037,6 @@
       <c r="E219" t="n">
         <v>21.62</v>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6153,11 +5058,6 @@
       <c r="E220" t="n">
         <v>21.62</v>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6179,11 +5079,6 @@
       <c r="E221" t="n">
         <v>21.62</v>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6205,11 +5100,6 @@
       <c r="E222" t="n">
         <v>21.62</v>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6231,11 +5121,6 @@
       <c r="E223" t="n">
         <v>21.62</v>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6257,11 +5142,6 @@
       <c r="E224" t="n">
         <v>211.51</v>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6283,11 +5163,6 @@
       <c r="E225" t="n">
         <v>211.51</v>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6309,11 +5184,6 @@
       <c r="E226" t="n">
         <v>358.39</v>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6335,11 +5205,6 @@
       <c r="E227" t="n">
         <v>211.51</v>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6361,11 +5226,6 @@
       <c r="E228" t="n">
         <v>358.39</v>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6387,11 +5247,6 @@
       <c r="E229" t="n">
         <v>3056.37</v>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6413,11 +5268,6 @@
       <c r="E230" t="n">
         <v>3056.37</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6439,11 +5289,6 @@
       <c r="E231" t="n">
         <v>2794.97</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6465,11 +5310,6 @@
       <c r="E232" t="n">
         <v>2794.97</v>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6491,11 +5331,6 @@
       <c r="E233" t="n">
         <v>66.98999999999999</v>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6517,11 +5352,6 @@
       <c r="E234" t="n">
         <v>202.2</v>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6543,11 +5373,6 @@
       <c r="E235" t="n">
         <v>0</v>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6569,11 +5394,6 @@
       <c r="E236" t="n">
         <v>0</v>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6595,11 +5415,6 @@
       <c r="E237" t="n">
         <v>28.35</v>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6621,11 +5436,6 @@
       <c r="E238" t="n">
         <v>28.35</v>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6647,11 +5457,6 @@
       <c r="E239" t="n">
         <v>28.35</v>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6673,11 +5478,6 @@
       <c r="E240" t="n">
         <v>28.35</v>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6699,11 +5499,6 @@
       <c r="E241" t="n">
         <v>14.5</v>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6725,11 +5520,6 @@
       <c r="E242" t="n">
         <v>1060.65</v>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6751,11 +5541,6 @@
       <c r="E243" t="n">
         <v>317.72</v>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6777,11 +5562,6 @@
       <c r="E244" t="n">
         <v>445.6</v>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6803,11 +5583,6 @@
       <c r="E245" t="n">
         <v>445.6</v>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6829,11 +5604,6 @@
       <c r="E246" t="n">
         <v>670.8</v>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6855,11 +5625,6 @@
       <c r="E247" t="n">
         <v>38.26</v>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6881,11 +5646,6 @@
       <c r="E248" t="n">
         <v>38.26</v>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6907,11 +5667,6 @@
       <c r="E249" t="n">
         <v>50.96</v>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6933,11 +5688,6 @@
       <c r="E250" t="n">
         <v>50.96</v>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6959,11 +5709,6 @@
       <c r="E251" t="n">
         <v>133.07</v>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6985,11 +5730,6 @@
       <c r="E252" t="n">
         <v>68.39</v>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7011,11 +5751,6 @@
       <c r="E253" t="n">
         <v>363.56</v>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7037,11 +5772,6 @@
       <c r="E254" t="n">
         <v>363.56</v>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7063,11 +5793,6 @@
       <c r="E255" t="n">
         <v>363.56</v>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7089,11 +5814,6 @@
       <c r="E256" t="n">
         <v>1404.01</v>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7115,11 +5835,6 @@
       <c r="E257" t="n">
         <v>864.74</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7141,11 +5856,6 @@
       <c r="E258" t="n">
         <v>88.12</v>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7167,11 +5877,6 @@
       <c r="E259" t="n">
         <v>88.12</v>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7193,11 +5898,6 @@
       <c r="E260" t="n">
         <v>389.75</v>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7219,11 +5919,6 @@
       <c r="E261" t="n">
         <v>63.12</v>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7245,11 +5940,6 @@
       <c r="E262" t="n">
         <v>63.12</v>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7271,11 +5961,6 @@
       <c r="E263" t="n">
         <v>63.12</v>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7297,11 +5982,6 @@
       <c r="E264" t="n">
         <v>153.98</v>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7323,11 +6003,6 @@
       <c r="E265" t="n">
         <v>153.98</v>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7349,11 +6024,6 @@
       <c r="E266" t="n">
         <v>137.64</v>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7375,11 +6045,6 @@
       <c r="E267" t="n">
         <v>1925.17</v>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7401,11 +6066,6 @@
       <c r="E268" t="n">
         <v>881.16</v>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7427,11 +6087,6 @@
       <c r="E269" t="n">
         <v>353.72</v>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7453,11 +6108,6 @@
       <c r="E270" t="n">
         <v>33.23</v>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7479,11 +6129,6 @@
       <c r="E271" t="n">
         <v>33.23</v>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7505,11 +6150,6 @@
       <c r="E272" t="n">
         <v>33.23</v>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7531,11 +6171,6 @@
       <c r="E273" t="n">
         <v>33.23</v>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7557,11 +6192,6 @@
       <c r="E274" t="n">
         <v>335.96</v>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7583,11 +6213,6 @@
       <c r="E275" t="n">
         <v>323.78</v>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7609,11 +6234,6 @@
       <c r="E276" t="n">
         <v>103.06</v>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7635,11 +6255,6 @@
       <c r="E277" t="n">
         <v>1672.2</v>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7661,11 +6276,6 @@
       <c r="E278" t="n">
         <v>430.62</v>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7687,11 +6297,6 @@
       <c r="E279" t="n">
         <v>79.53</v>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7713,11 +6318,6 @@
       <c r="E280" t="n">
         <v>79.53</v>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7739,11 +6339,6 @@
       <c r="E281" t="n">
         <v>114.91</v>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7765,11 +6360,6 @@
       <c r="E282" t="n">
         <v>1832.52</v>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7791,11 +6381,6 @@
       <c r="E283" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7817,11 +6402,6 @@
       <c r="E284" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7843,11 +6423,6 @@
       <c r="E285" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7869,11 +6444,6 @@
       <c r="E286" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7895,11 +6465,6 @@
       <c r="E287" t="n">
         <v>1832.52</v>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7921,11 +6486,6 @@
       <c r="E288" t="n">
         <v>1832.52</v>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7947,11 +6507,6 @@
       <c r="E289" t="n">
         <v>59.74</v>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7973,11 +6528,6 @@
       <c r="E290" t="n">
         <v>59.74</v>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7999,11 +6549,6 @@
       <c r="E291" t="n">
         <v>158.15</v>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8025,11 +6570,6 @@
       <c r="E292" t="n">
         <v>158.15</v>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8051,11 +6591,6 @@
       <c r="E293" t="n">
         <v>158.15</v>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8077,11 +6612,6 @@
       <c r="E294" t="n">
         <v>98.15000000000001</v>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8103,11 +6633,6 @@
       <c r="E295" t="n">
         <v>453.44</v>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8129,11 +6654,6 @@
       <c r="E296" t="n">
         <v>33.23</v>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8155,11 +6675,6 @@
       <c r="E297" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8181,11 +6696,6 @@
       <c r="E298" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8207,11 +6717,6 @@
       <c r="E299" t="n">
         <v>55.48</v>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8233,11 +6738,6 @@
       <c r="E300" t="n">
         <v>68.39</v>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8259,11 +6759,6 @@
       <c r="E301" t="n">
         <v>31.83</v>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8285,11 +6780,6 @@
       <c r="E302" t="n">
         <v>31.83</v>
       </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8311,11 +6801,6 @@
       <c r="E303" t="n">
         <v>31.83</v>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8337,11 +6822,6 @@
       <c r="E304" t="n">
         <v>57.54</v>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8363,11 +6843,6 @@
       <c r="E305" t="n">
         <v>75.63</v>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8389,11 +6864,6 @@
       <c r="E306" t="n">
         <v>75.63</v>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8415,11 +6885,6 @@
       <c r="E307" t="n">
         <v>75.63</v>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8441,11 +6906,6 @@
       <c r="E308" t="n">
         <v>25.02</v>
       </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8467,11 +6927,6 @@
       <c r="E309" t="n">
         <v>25.02</v>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>307</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8493,11 +6948,6 @@
       <c r="E310" t="n">
         <v>47.05</v>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8519,11 +6969,6 @@
       <c r="E311" t="n">
         <v>25.02</v>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8545,11 +6990,6 @@
       <c r="E312" t="n">
         <v>25.02</v>
       </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8571,11 +7011,6 @@
       <c r="E313" t="n">
         <v>25.02</v>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8597,11 +7032,6 @@
       <c r="E314" t="n">
         <v>4055.97</v>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8623,11 +7053,6 @@
       <c r="E315" t="n">
         <v>81.97999999999999</v>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8649,11 +7074,6 @@
       <c r="E316" t="n">
         <v>5131.04</v>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8676,11 +7096,6 @@
       <c r="E317" t="n">
         <v>3415.81</v>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8702,11 +7117,6 @@
       <c r="E318" t="n">
         <v>2892.929999999999</v>
       </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8728,11 +7138,6 @@
       <c r="E319" t="n">
         <v>3349.83</v>
       </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8754,11 +7159,6 @@
       <c r="E320" t="n">
         <v>1837.4</v>
       </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8780,11 +7180,6 @@
       <c r="E321" t="n">
         <v>1837.4</v>
       </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8806,11 +7201,6 @@
       <c r="E322" t="n">
         <v>15.94</v>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8832,11 +7222,6 @@
       <c r="E323" t="n">
         <v>15.94</v>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8858,11 +7243,6 @@
       <c r="E324" t="n">
         <v>12.76</v>
       </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8884,11 +7264,6 @@
       <c r="E325" t="n">
         <v>27.25</v>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8910,11 +7285,6 @@
       <c r="E326" t="n">
         <v>27.25</v>
       </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8936,11 +7306,6 @@
       <c r="E327" t="n">
         <v>27.25</v>
       </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8962,11 +7327,6 @@
       <c r="E328" t="n">
         <v>72.28</v>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8988,11 +7348,6 @@
       <c r="E329" t="n">
         <v>72.28</v>
       </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>327</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9014,11 +7369,6 @@
       <c r="E330" t="n">
         <v>373.94</v>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9040,11 +7390,6 @@
       <c r="E331" t="n">
         <v>10.46</v>
       </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9066,11 +7411,6 @@
       <c r="E332" t="n">
         <v>10.46</v>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9092,11 +7432,6 @@
       <c r="E333" t="n">
         <v>10.46</v>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9118,11 +7453,6 @@
       <c r="E334" t="n">
         <v>85.91</v>
       </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9144,11 +7474,6 @@
       <c r="E335" t="n">
         <v>85.91</v>
       </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9170,11 +7495,6 @@
       <c r="E336" t="n">
         <v>85.91</v>
       </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9196,11 +7516,6 @@
       <c r="E337" t="n">
         <v>85.91</v>
       </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9222,11 +7537,6 @@
       <c r="E338" t="n">
         <v>85.91</v>
       </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9248,11 +7558,6 @@
       <c r="E339" t="n">
         <v>85.91</v>
       </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9274,11 +7579,6 @@
       <c r="E340" t="n">
         <v>137605.05</v>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9300,11 +7600,6 @@
       <c r="E341" t="n">
         <v>266.94</v>
       </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9326,11 +7621,6 @@
       <c r="E342" t="n">
         <v>87.09</v>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9352,11 +7642,6 @@
       <c r="E343" t="n">
         <v>83.34999999999999</v>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9378,11 +7663,6 @@
       <c r="E344" t="n">
         <v>83.34999999999999</v>
       </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9404,11 +7684,6 @@
       <c r="E345" t="n">
         <v>83.34999999999999</v>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9430,11 +7705,6 @@
       <c r="E346" t="n">
         <v>1922.07</v>
       </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9456,11 +7726,6 @@
       <c r="E347" t="n">
         <v>55.53</v>
       </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9482,11 +7747,6 @@
       <c r="E348" t="n">
         <v>218.07</v>
       </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9508,11 +7768,6 @@
       <c r="E349" t="n">
         <v>361.07</v>
       </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>347</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9534,11 +7789,6 @@
       <c r="E350" t="n">
         <v>11646.8</v>
       </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9560,11 +7810,6 @@
       <c r="E351" t="n">
         <v>8880.219999999999</v>
       </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>349</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9586,11 +7831,6 @@
       <c r="E352" t="n">
         <v>13578.8</v>
       </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9612,11 +7852,6 @@
       <c r="E353" t="n">
         <v>263.86</v>
       </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9638,11 +7873,6 @@
       <c r="E354" t="n">
         <v>12.7</v>
       </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9664,11 +7894,6 @@
       <c r="E355" t="n">
         <v>158.15</v>
       </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9690,11 +7915,6 @@
       <c r="E356" t="n">
         <v>158.15</v>
       </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9716,11 +7936,6 @@
       <c r="E357" t="n">
         <v>158.15</v>
       </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9742,11 +7957,6 @@
       <c r="E358" t="n">
         <v>158.15</v>
       </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9768,11 +7978,6 @@
       <c r="E359" t="n">
         <v>158.15</v>
       </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9794,11 +7999,6 @@
       <c r="E360" t="n">
         <v>158.15</v>
       </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9820,11 +8020,6 @@
       <c r="E361" t="n">
         <v>158.15</v>
       </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>359</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9846,11 +8041,6 @@
       <c r="E362" t="n">
         <v>158.15</v>
       </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9872,11 +8062,6 @@
       <c r="E363" t="n">
         <v>25827.22</v>
       </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9898,11 +8083,6 @@
       <c r="E364" t="n">
         <v>24976.73</v>
       </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>362</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9924,11 +8104,6 @@
       <c r="E365" t="n">
         <v>288.22</v>
       </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9950,11 +8125,6 @@
       <c r="E366" t="n">
         <v>288.22</v>
       </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9976,11 +8146,6 @@
       <c r="E367" t="n">
         <v>22.85</v>
       </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10002,11 +8167,6 @@
       <c r="E368" t="n">
         <v>25827.22</v>
       </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>366</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10028,11 +8188,6 @@
       <c r="E369" t="n">
         <v>1651.67</v>
       </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10054,11 +8209,6 @@
       <c r="E370" t="n">
         <v>98.93000000000001</v>
       </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10080,11 +8230,6 @@
       <c r="E371" t="n">
         <v>286.74</v>
       </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>369</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10106,11 +8251,6 @@
       <c r="E372" t="n">
         <v>286.74</v>
       </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10132,11 +8272,6 @@
       <c r="E373" t="n">
         <v>286.74</v>
       </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10158,11 +8293,6 @@
       <c r="E374" t="n">
         <v>297.56</v>
       </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10184,11 +8314,6 @@
       <c r="E375" t="n">
         <v>297.56</v>
       </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10210,11 +8335,6 @@
       <c r="E376" t="n">
         <v>297.56</v>
       </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>374</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10236,11 +8356,6 @@
       <c r="E377" t="n">
         <v>297.56</v>
       </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10262,11 +8377,6 @@
       <c r="E378" t="n">
         <v>297.56</v>
       </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10288,11 +8398,6 @@
       <c r="E379" t="n">
         <v>297.56</v>
       </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10314,11 +8419,6 @@
       <c r="E380" t="n">
         <v>297.56</v>
       </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>378</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10340,11 +8440,6 @@
       <c r="E381" t="n">
         <v>306.03</v>
       </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10366,11 +8461,6 @@
       <c r="E382" t="n">
         <v>279.94</v>
       </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10391,11 +8481,6 @@
       </c>
       <c r="E383" t="n">
         <v>4055.97</v>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
       </c>
     </row>
     <row r="384">
@@ -10420,11 +8505,6 @@
       <c r="E384" t="n">
         <v>3303.21</v>
       </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10446,11 +8526,6 @@
       <c r="E385" t="n">
         <v>7.95</v>
       </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10472,11 +8547,6 @@
       <c r="E386" t="n">
         <v>7.95</v>
       </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10498,11 +8568,6 @@
       <c r="E387" t="n">
         <v>279.63</v>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10524,11 +8589,6 @@
       <c r="E388" t="n">
         <v>33.23</v>
       </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10550,11 +8610,6 @@
       <c r="E389" t="n">
         <v>33.23</v>
       </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10576,11 +8631,6 @@
       <c r="E390" t="n">
         <v>33.23</v>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10602,11 +8652,6 @@
       <c r="E391" t="n">
         <v>33.23</v>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10628,11 +8673,6 @@
       <c r="E392" t="n">
         <v>33.23</v>
       </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10654,11 +8694,6 @@
       <c r="E393" t="n">
         <v>33.23</v>
       </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>391</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10680,11 +8715,6 @@
       <c r="E394" t="n">
         <v>95.84</v>
       </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>392</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10706,11 +8736,6 @@
       <c r="E395" t="n">
         <v>105.63</v>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10732,11 +8757,6 @@
       <c r="E396" t="n">
         <v>105.63</v>
       </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10758,11 +8778,6 @@
       <c r="E397" t="n">
         <v>105.63</v>
       </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10784,11 +8799,6 @@
       <c r="E398" t="n">
         <v>105.63</v>
       </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10810,11 +8820,6 @@
       <c r="E399" t="n">
         <v>105.63</v>
       </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>397</t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10836,11 +8841,6 @@
       <c r="E400" t="n">
         <v>105.63</v>
       </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10862,11 +8862,6 @@
       <c r="E401" t="n">
         <v>105.63</v>
       </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>399</t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10888,11 +8883,6 @@
       <c r="E402" t="n">
         <v>266.15</v>
       </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10914,11 +8904,6 @@
       <c r="E403" t="n">
         <v>266.15</v>
       </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>401</t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10940,11 +8925,6 @@
       <c r="E404" t="n">
         <v>266.15</v>
       </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>402</t>
-        </is>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10966,11 +8946,6 @@
       <c r="E405" t="n">
         <v>554.64</v>
       </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>403</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -10992,11 +8967,6 @@
       <c r="E406" t="n">
         <v>676.8</v>
       </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11018,11 +8988,6 @@
       <c r="E407" t="n">
         <v>676.8</v>
       </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11044,11 +9009,6 @@
       <c r="E408" t="n">
         <v>493.55</v>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>406</t>
-        </is>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11070,11 +9030,6 @@
       <c r="E409" t="n">
         <v>554.64</v>
       </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>407</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11096,11 +9051,6 @@
       <c r="E410" t="n">
         <v>676.8</v>
       </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11122,11 +9072,6 @@
       <c r="E411" t="n">
         <v>100.61</v>
       </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11148,11 +9093,6 @@
       <c r="E412" t="n">
         <v>100.61</v>
       </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11174,11 +9114,6 @@
       <c r="E413" t="n">
         <v>100.61</v>
       </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11200,11 +9135,6 @@
       <c r="E414" t="n">
         <v>100.61</v>
       </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11227,11 +9157,6 @@
       <c r="E415" t="n">
         <v>847.8399999999999</v>
       </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11254,11 +9179,6 @@
       <c r="E416" t="n">
         <v>1167.74</v>
       </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11280,11 +9200,6 @@
       <c r="E417" t="n">
         <v>11.92</v>
       </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11306,11 +9221,6 @@
       <c r="E418" t="n">
         <v>11.92</v>
       </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11332,11 +9242,6 @@
       <c r="E419" t="n">
         <v>11.92</v>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>417</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11358,11 +9263,6 @@
       <c r="E420" t="n">
         <v>727.51</v>
       </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11384,11 +9284,6 @@
       <c r="E421" t="n">
         <v>874.72</v>
       </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11410,11 +9305,6 @@
       <c r="E422" t="n">
         <v>72.5</v>
       </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11436,11 +9326,6 @@
       <c r="E423" t="n">
         <v>208.57</v>
       </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>421</t>
-        </is>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11462,11 +9347,6 @@
       <c r="E424" t="n">
         <v>337.9</v>
       </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11488,11 +9368,6 @@
       <c r="E425" t="n">
         <v>73.91</v>
       </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11514,11 +9389,6 @@
       <c r="E426" t="n">
         <v>73.91</v>
       </c>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11540,11 +9410,6 @@
       <c r="E427" t="n">
         <v>73.91</v>
       </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11566,11 +9431,6 @@
       <c r="E428" t="n">
         <v>73.91</v>
       </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11592,11 +9452,6 @@
       <c r="E429" t="n">
         <v>73.91</v>
       </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11618,11 +9473,6 @@
       <c r="E430" t="n">
         <v>73.91</v>
       </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11644,11 +9494,6 @@
       <c r="E431" t="n">
         <v>114.92</v>
       </c>
-      <c r="F431" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11670,11 +9515,6 @@
       <c r="E432" t="n">
         <v>987.73</v>
       </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11696,11 +9536,6 @@
       <c r="E433" t="n">
         <v>208.14</v>
       </c>
-      <c r="F433" t="inlineStr">
-        <is>
-          <t>431</t>
-        </is>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11722,11 +9557,6 @@
       <c r="E434" t="n">
         <v>289.09</v>
       </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11748,11 +9578,6 @@
       <c r="E435" t="n">
         <v>113.61</v>
       </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11774,11 +9599,6 @@
       <c r="E436" t="n">
         <v>436.24</v>
       </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11800,11 +9620,6 @@
       <c r="E437" t="n">
         <v>436.24</v>
       </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11826,11 +9641,6 @@
       <c r="E438" t="n">
         <v>436.24</v>
       </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11852,11 +9662,6 @@
       <c r="E439" t="n">
         <v>436.24</v>
       </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>437</t>
-        </is>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11878,11 +9683,6 @@
       <c r="E440" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>438</t>
-        </is>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11904,11 +9704,6 @@
       <c r="E441" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>439</t>
-        </is>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11930,11 +9725,6 @@
       <c r="E442" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11956,11 +9746,6 @@
       <c r="E443" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>441</t>
-        </is>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11982,11 +9767,6 @@
       <c r="E444" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12008,11 +9788,6 @@
       <c r="E445" t="n">
         <v>305.42</v>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12034,11 +9809,6 @@
       <c r="E446" t="n">
         <v>791.04</v>
       </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12060,11 +9830,6 @@
       <c r="E447" t="n">
         <v>488.67</v>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12086,11 +9851,6 @@
       <c r="E448" t="n">
         <v>694.35</v>
       </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12112,11 +9872,6 @@
       <c r="E449" t="n">
         <v>694.35</v>
       </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12138,11 +9893,6 @@
       <c r="E450" t="n">
         <v>516.77</v>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>448</t>
-        </is>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12164,11 +9914,6 @@
       <c r="E451" t="n">
         <v>210.74</v>
       </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12190,11 +9935,6 @@
       <c r="E452" t="n">
         <v>263.57</v>
       </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12216,11 +9956,6 @@
       <c r="E453" t="n">
         <v>263.57</v>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12242,11 +9977,6 @@
       <c r="E454" t="n">
         <v>263.57</v>
       </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12268,11 +9998,6 @@
       <c r="E455" t="n">
         <v>13.68</v>
       </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12294,11 +10019,6 @@
       <c r="E456" t="n">
         <v>13.68</v>
       </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12320,11 +10040,6 @@
       <c r="E457" t="n">
         <v>13.68</v>
       </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12346,11 +10061,6 @@
       <c r="E458" t="n">
         <v>204.02</v>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12372,11 +10082,6 @@
       <c r="E459" t="n">
         <v>204.02</v>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12398,11 +10103,6 @@
       <c r="E460" t="n">
         <v>126.24</v>
       </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12423,11 +10123,6 @@
       </c>
       <c r="E461" t="n">
         <v>232.12</v>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
       </c>
     </row>
     <row r="462">
@@ -12452,11 +10147,6 @@
       <c r="E462" t="n">
         <v>4576.96</v>
       </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12479,11 +10169,6 @@
       <c r="E463" t="n">
         <v>2510.2</v>
       </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12505,11 +10190,6 @@
       <c r="E464" t="n">
         <v>13.68</v>
       </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>462</t>
-        </is>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12531,11 +10211,6 @@
       <c r="E465" t="n">
         <v>13.68</v>
       </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12557,11 +10232,6 @@
       <c r="E466" t="n">
         <v>13.68</v>
       </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12583,11 +10253,6 @@
       <c r="E467" t="n">
         <v>13.68</v>
       </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12609,11 +10274,6 @@
       <c r="E468" t="n">
         <v>13.68</v>
       </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12635,11 +10295,6 @@
       <c r="E469" t="n">
         <v>13.68</v>
       </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12661,11 +10316,6 @@
       <c r="E470" t="n">
         <v>13.68</v>
       </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12687,11 +10337,6 @@
       <c r="E471" t="n">
         <v>13.68</v>
       </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>469</t>
-        </is>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12713,11 +10358,6 @@
       <c r="E472" t="n">
         <v>255.33</v>
       </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12739,11 +10379,6 @@
       <c r="E473" t="n">
         <v>1221.69</v>
       </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12765,11 +10400,6 @@
       <c r="E474" t="n">
         <v>258.87</v>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>472</t>
-        </is>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12791,11 +10421,6 @@
       <c r="E475" t="n">
         <v>1832.52</v>
       </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12817,11 +10442,6 @@
       <c r="E476" t="n">
         <v>1832.52</v>
       </c>
-      <c r="F476" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12843,11 +10463,6 @@
       <c r="E477" t="n">
         <v>752.5499999999998</v>
       </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12869,11 +10484,6 @@
       <c r="E478" t="n">
         <v>960.03</v>
       </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12895,11 +10505,6 @@
       <c r="E479" t="n">
         <v>1280.9</v>
       </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12921,11 +10526,6 @@
       <c r="E480" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -12947,11 +10547,6 @@
       <c r="E481" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -12973,11 +10568,6 @@
       <c r="E482" t="n">
         <v>232.12</v>
       </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -12999,11 +10589,6 @@
       <c r="E483" t="n">
         <v>232.12</v>
       </c>
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -13025,11 +10610,6 @@
       <c r="E484" t="n">
         <v>254103.65</v>
       </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>482</t>
-        </is>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -13051,11 +10631,6 @@
       <c r="E485" t="n">
         <v>441.29</v>
       </c>
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -13077,11 +10652,6 @@
       <c r="E486" t="n">
         <v>73.91</v>
       </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -13103,11 +10673,6 @@
       <c r="E487" t="n">
         <v>73.91</v>
       </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -13129,11 +10694,6 @@
       <c r="E488" t="n">
         <v>73.91</v>
       </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -13155,11 +10715,6 @@
       <c r="E489" t="n">
         <v>73.91</v>
       </c>
-      <c r="F489" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -13181,11 +10736,6 @@
       <c r="E490" t="n">
         <v>73.91</v>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -13207,11 +10757,6 @@
       <c r="E491" t="n">
         <v>73.91</v>
       </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -13233,11 +10778,6 @@
       <c r="E492" t="n">
         <v>0</v>
       </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -13259,11 +10799,6 @@
       <c r="E493" t="n">
         <v>791.04</v>
       </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>491</t>
-        </is>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -13285,11 +10820,6 @@
       <c r="E494" t="n">
         <v>144.22</v>
       </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -13311,11 +10841,6 @@
       <c r="E495" t="n">
         <v>144.22</v>
       </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>493</t>
-        </is>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -13337,11 +10862,6 @@
       <c r="E496" t="n">
         <v>483.32</v>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -13363,11 +10883,6 @@
       <c r="E497" t="n">
         <v>791.04</v>
       </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -13389,11 +10904,6 @@
       <c r="E498" t="n">
         <v>260.22</v>
       </c>
-      <c r="F498" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -13415,11 +10925,6 @@
       <c r="E499" t="n">
         <v>752.5499999999998</v>
       </c>
-      <c r="F499" t="inlineStr">
-        <is>
-          <t>497</t>
-        </is>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -13441,11 +10946,6 @@
       <c r="E500" t="n">
         <v>40.85</v>
       </c>
-      <c r="F500" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -13467,11 +10967,6 @@
       <c r="E501" t="n">
         <v>40.85</v>
       </c>
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -13493,11 +10988,6 @@
       <c r="E502" t="n">
         <v>40.85</v>
       </c>
-      <c r="F502" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -13519,11 +11009,6 @@
       <c r="E503" t="n">
         <v>40.85</v>
       </c>
-      <c r="F503" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -13545,11 +11030,6 @@
       <c r="E504" t="n">
         <v>40.85</v>
       </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -13571,11 +11051,6 @@
       <c r="E505" t="n">
         <v>40.85</v>
       </c>
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -13597,11 +11072,6 @@
       <c r="E506" t="n">
         <v>40.85</v>
       </c>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -13623,11 +11093,6 @@
       <c r="E507" t="n">
         <v>2477.7</v>
       </c>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -13649,11 +11114,6 @@
       <c r="E508" t="n">
         <v>59709.45</v>
       </c>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -13675,11 +11135,6 @@
       <c r="E509" t="n">
         <v>987.12</v>
       </c>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -13701,11 +11156,6 @@
       <c r="E510" t="n">
         <v>2086.63</v>
       </c>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -13727,11 +11177,6 @@
       <c r="E511" t="n">
         <v>982.2199999999999</v>
       </c>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -13753,11 +11198,6 @@
       <c r="E512" t="n">
         <v>2697.46</v>
       </c>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -13779,11 +11219,6 @@
       <c r="E513" t="n">
         <v>1104.39</v>
       </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -13805,11 +11240,6 @@
       <c r="E514" t="n">
         <v>161.87</v>
       </c>
-      <c r="F514" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -13831,11 +11261,6 @@
       <c r="E515" t="n">
         <v>3304.23</v>
       </c>
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>513</t>
-        </is>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -13856,11 +11281,6 @@
       </c>
       <c r="E516" t="n">
         <v>69.59999999999999</v>
-      </c>
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>514</t>
-        </is>
       </c>
     </row>
     <row r="517">
@@ -13885,11 +11305,6 @@
       <c r="E517" t="n">
         <v>1905.36</v>
       </c>
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -13911,11 +11326,6 @@
       <c r="E518" t="n">
         <v>204.02</v>
       </c>
-      <c r="F518" t="inlineStr">
-        <is>
-          <t>516</t>
-        </is>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -13937,11 +11347,6 @@
       <c r="E519" t="n">
         <v>204.02</v>
       </c>
-      <c r="F519" t="inlineStr">
-        <is>
-          <t>517</t>
-        </is>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -13963,11 +11368,6 @@
       <c r="E520" t="n">
         <v>833.71</v>
       </c>
-      <c r="F520" t="inlineStr">
-        <is>
-          <t>518</t>
-        </is>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -13989,11 +11389,6 @@
       <c r="E521" t="n">
         <v>833.71</v>
       </c>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>519</t>
-        </is>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -14015,11 +11410,6 @@
       <c r="E522" t="n">
         <v>2286</v>
       </c>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -14041,11 +11431,6 @@
       <c r="E523" t="n">
         <v>204.02</v>
       </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -14067,11 +11452,6 @@
       <c r="E524" t="n">
         <v>8063.07</v>
       </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -14093,11 +11473,6 @@
       <c r="E525" t="n">
         <v>165.24</v>
       </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -14119,11 +11494,6 @@
       <c r="E526" t="n">
         <v>3425.39</v>
       </c>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -14145,11 +11515,6 @@
       <c r="E527" t="n">
         <v>111.04</v>
       </c>
-      <c r="F527" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -14171,11 +11536,6 @@
       <c r="E528" t="n">
         <v>111.04</v>
       </c>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -14197,11 +11557,6 @@
       <c r="E529" t="n">
         <v>323.78</v>
       </c>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -14223,11 +11578,6 @@
       <c r="E530" t="n">
         <v>4657.03</v>
       </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -14249,11 +11599,6 @@
       <c r="E531" t="n">
         <v>128.52</v>
       </c>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -14275,11 +11620,6 @@
       <c r="E532" t="n">
         <v>4525.09</v>
       </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -14302,11 +11642,6 @@
       <c r="E533" t="n">
         <v>297.56</v>
       </c>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -14329,11 +11664,6 @@
       <c r="E534" t="n">
         <v>297.56</v>
       </c>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>532</t>
-        </is>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -14355,11 +11685,6 @@
       <c r="E535" t="n">
         <v>42.85</v>
       </c>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>533</t>
-        </is>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -14381,11 +11706,6 @@
       <c r="E536" t="n">
         <v>42.85</v>
       </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -14407,11 +11727,6 @@
       <c r="E537" t="n">
         <v>265.11</v>
       </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -14433,11 +11748,6 @@
       <c r="E538" t="n">
         <v>295.64</v>
       </c>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -14459,11 +11769,6 @@
       <c r="E539" t="n">
         <v>18232.31</v>
       </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -14485,11 +11790,6 @@
       <c r="E540" t="n">
         <v>832.33</v>
       </c>
-      <c r="F540" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -14511,11 +11811,6 @@
       <c r="E541" t="n">
         <v>99.70999999999999</v>
       </c>
-      <c r="F541" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -14537,11 +11832,6 @@
       <c r="E542" t="n">
         <v>99.70999999999999</v>
       </c>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -14563,11 +11853,6 @@
       <c r="E543" t="n">
         <v>99.70999999999999</v>
       </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -14589,11 +11874,6 @@
       <c r="E544" t="n">
         <v>35.91</v>
       </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -14615,11 +11895,6 @@
       <c r="E545" t="n">
         <v>35.91</v>
       </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>543</t>
-        </is>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -14641,11 +11916,6 @@
       <c r="E546" t="n">
         <v>35.91</v>
       </c>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>544</t>
-        </is>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -14667,11 +11937,6 @@
       <c r="E547" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -14693,11 +11958,6 @@
       <c r="E548" t="n">
         <v>1045.76</v>
       </c>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -14719,11 +11979,6 @@
       <c r="E549" t="n">
         <v>751.63</v>
       </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>547</t>
-        </is>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -14745,11 +12000,6 @@
       <c r="E550" t="n">
         <v>337.79</v>
       </c>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -14771,11 +12021,6 @@
       <c r="E551" t="n">
         <v>2107.39</v>
       </c>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -14797,11 +12042,6 @@
       <c r="E552" t="n">
         <v>563.5599999999999</v>
       </c>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -14823,11 +12063,6 @@
       <c r="E553" t="n">
         <v>11133.27</v>
       </c>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -14849,11 +12084,6 @@
       <c r="E554" t="n">
         <v>10412.35</v>
       </c>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -14875,11 +12105,6 @@
       <c r="E555" t="n">
         <v>3399.93</v>
       </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>553</t>
-        </is>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -14901,11 +12126,6 @@
       <c r="E556" t="n">
         <v>1464.48</v>
       </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -14926,11 +12146,6 @@
       </c>
       <c r="E557" t="n">
         <v>57350.93</v>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/sortie/Bordereau_corrigé.xlsx
+++ b/sortie/Bordereau_corrigé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E557"/>
+  <dimension ref="A1:F557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Prix unitaire</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>::auto_unique_id::</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,11 @@
       <c r="E2" t="n">
         <v>44.45</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +511,11 @@
       <c r="E3" t="n">
         <v>44.45</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,6 +537,11 @@
       <c r="E4" t="n">
         <v>44.45</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -543,6 +563,11 @@
       <c r="E5" t="n">
         <v>44.45</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
       <c r="E6" t="n">
         <v>44.45</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,6 +615,11 @@
       <c r="E7" t="n">
         <v>44.45</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,6 +641,11 @@
       <c r="E8" t="n">
         <v>73.44</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -627,6 +667,11 @@
       <c r="E9" t="n">
         <v>73.44</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -648,6 +693,11 @@
       <c r="E10" t="n">
         <v>53.28999999999999</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -669,6 +719,11 @@
       <c r="E11" t="n">
         <v>53.28999999999999</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -690,6 +745,11 @@
       <c r="E12" t="n">
         <v>53.28999999999999</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -711,6 +771,11 @@
       <c r="E13" t="n">
         <v>53.28999999999999</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -732,6 +797,11 @@
       <c r="E14" t="n">
         <v>53.28999999999999</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -753,6 +823,11 @@
       <c r="E15" t="n">
         <v>53.25</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -774,6 +849,11 @@
       <c r="E16" t="n">
         <v>50.55</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -795,6 +875,11 @@
       <c r="E17" t="n">
         <v>50.55</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -816,6 +901,11 @@
       <c r="E18" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -837,6 +927,11 @@
       <c r="E19" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -858,6 +953,11 @@
       <c r="E20" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -879,6 +979,11 @@
       <c r="E21" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -900,6 +1005,11 @@
       <c r="E22" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -921,6 +1031,11 @@
       <c r="E23" t="n">
         <v>69.79000000000001</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -942,6 +1057,11 @@
       <c r="E24" t="n">
         <v>61.41</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -963,6 +1083,11 @@
       <c r="E25" t="n">
         <v>61.41</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -984,6 +1109,11 @@
       <c r="E26" t="n">
         <v>61.41</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1005,6 +1135,11 @@
       <c r="E27" t="n">
         <v>61.41</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1026,6 +1161,11 @@
       <c r="E28" t="n">
         <v>47.9</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1047,6 +1187,11 @@
       <c r="E29" t="n">
         <v>47.9</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1068,6 +1213,11 @@
       <c r="E30" t="n">
         <v>47.9</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1089,6 +1239,11 @@
       <c r="E31" t="n">
         <v>47.9</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1110,6 +1265,11 @@
       <c r="E32" t="n">
         <v>47.9</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1131,6 +1291,11 @@
       <c r="E33" t="n">
         <v>49.6</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1152,6 +1317,11 @@
       <c r="E34" t="n">
         <v>49.6</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1173,6 +1343,11 @@
       <c r="E35" t="n">
         <v>49.6</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1194,6 +1369,11 @@
       <c r="E36" t="n">
         <v>63.59</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1215,6 +1395,11 @@
       <c r="E37" t="n">
         <v>63.59</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1236,6 +1421,11 @@
       <c r="E38" t="n">
         <v>45.8</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1257,6 +1447,11 @@
       <c r="E39" t="n">
         <v>63.59</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1278,6 +1473,11 @@
       <c r="E40" t="n">
         <v>63.59</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1299,6 +1499,11 @@
       <c r="E41" t="n">
         <v>23.81</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1320,6 +1525,11 @@
       <c r="E42" t="n">
         <v>23.81</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1341,6 +1551,11 @@
       <c r="E43" t="n">
         <v>23.81</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1362,6 +1577,11 @@
       <c r="E44" t="n">
         <v>23.81</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1383,6 +1603,11 @@
       <c r="E45" t="n">
         <v>23.81</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1404,6 +1629,11 @@
       <c r="E46" t="n">
         <v>23.81</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1425,6 +1655,11 @@
       <c r="E47" t="n">
         <v>23.81</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1446,6 +1681,11 @@
       <c r="E48" t="n">
         <v>23.81</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1467,6 +1707,11 @@
       <c r="E49" t="n">
         <v>122.17</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1488,6 +1733,11 @@
       <c r="E50" t="n">
         <v>122.17</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1509,6 +1759,11 @@
       <c r="E51" t="n">
         <v>183.25</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1530,6 +1785,11 @@
       <c r="E52" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1551,6 +1811,11 @@
       <c r="E53" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1572,6 +1837,11 @@
       <c r="E54" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1593,6 +1863,11 @@
       <c r="E55" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1614,6 +1889,11 @@
       <c r="E56" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1635,6 +1915,11 @@
       <c r="E57" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1656,6 +1941,11 @@
       <c r="E58" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1677,6 +1967,11 @@
       <c r="E59" t="n">
         <v>8.859999999999999</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1698,6 +1993,11 @@
       <c r="E60" t="n">
         <v>86.41</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1719,6 +2019,11 @@
       <c r="E61" t="n">
         <v>86.41</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1740,6 +2045,11 @@
       <c r="E62" t="n">
         <v>45.8</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1761,6 +2071,11 @@
       <c r="E63" t="n">
         <v>29.83</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1782,6 +2097,11 @@
       <c r="E64" t="n">
         <v>29.83</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1803,6 +2123,11 @@
       <c r="E65" t="n">
         <v>29.83</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1824,6 +2149,11 @@
       <c r="E66" t="n">
         <v>29.83</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1845,6 +2175,11 @@
       <c r="E67" t="n">
         <v>44.74</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1866,6 +2201,11 @@
       <c r="E68" t="n">
         <v>72.95</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1887,6 +2227,11 @@
       <c r="E69" t="n">
         <v>72.95</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1908,6 +2253,11 @@
       <c r="E70" t="n">
         <v>72.95</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1929,6 +2279,11 @@
       <c r="E71" t="n">
         <v>72.95999999999999</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1950,6 +2305,11 @@
       <c r="E72" t="n">
         <v>49.05</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1971,6 +2331,11 @@
       <c r="E73" t="n">
         <v>31.12</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1992,6 +2357,11 @@
       <c r="E74" t="n">
         <v>46.68</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2013,6 +2383,11 @@
       <c r="E75" t="n">
         <v>31.12</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2034,6 +2409,11 @@
       <c r="E76" t="n">
         <v>46.68</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2055,6 +2435,11 @@
       <c r="E77" t="n">
         <v>46.68</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2076,6 +2461,11 @@
       <c r="E78" t="n">
         <v>46.68</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2097,6 +2487,11 @@
       <c r="E79" t="n">
         <v>61.41</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2118,6 +2513,11 @@
       <c r="E80" t="n">
         <v>61.4</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2139,6 +2539,11 @@
       <c r="E81" t="n">
         <v>61.41</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2160,6 +2565,11 @@
       <c r="E82" t="n">
         <v>61.41</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2181,6 +2591,11 @@
       <c r="E83" t="n">
         <v>163.68</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2202,6 +2617,11 @@
       <c r="E84" t="n">
         <v>124.94</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2223,6 +2643,11 @@
       <c r="E85" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2244,6 +2669,11 @@
       <c r="E86" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2265,6 +2695,11 @@
       <c r="E87" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2286,6 +2721,11 @@
       <c r="E88" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2307,6 +2747,11 @@
       <c r="E89" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2328,6 +2773,11 @@
       <c r="E90" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2349,6 +2799,11 @@
       <c r="E91" t="n">
         <v>9.220000000000001</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2370,6 +2825,11 @@
       <c r="E92" t="n">
         <v>34.77</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2391,6 +2851,11 @@
       <c r="E93" t="n">
         <v>52.15</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2412,6 +2877,11 @@
       <c r="E94" t="n">
         <v>64.11</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2433,6 +2903,11 @@
       <c r="E95" t="n">
         <v>64.11</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2454,6 +2929,11 @@
       <c r="E96" t="n">
         <v>64.12</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2475,6 +2955,11 @@
       <c r="E97" t="n">
         <v>64.11</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2496,6 +2981,11 @@
       <c r="E98" t="n">
         <v>50.67</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2517,6 +3007,11 @@
       <c r="E99" t="n">
         <v>50.68</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2538,6 +3033,11 @@
       <c r="E100" t="n">
         <v>50.68</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2559,6 +3059,11 @@
       <c r="E101" t="n">
         <v>50.68</v>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2580,6 +3085,11 @@
       <c r="E102" t="n">
         <v>557.16</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2601,6 +3111,11 @@
       <c r="E103" t="n">
         <v>668.6900000000001</v>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2622,6 +3137,11 @@
       <c r="E104" t="n">
         <v>860.22</v>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2643,6 +3163,11 @@
       <c r="E105" t="n">
         <v>956.22</v>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2664,6 +3189,11 @@
       <c r="E106" t="n">
         <v>430.11</v>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2685,6 +3215,11 @@
       <c r="E107" t="n">
         <v>956.22</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2706,6 +3241,11 @@
       <c r="E108" t="n">
         <v>49.9</v>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2727,6 +3267,11 @@
       <c r="E109" t="n">
         <v>49.91</v>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2748,6 +3293,11 @@
       <c r="E110" t="n">
         <v>49.9</v>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2769,6 +3319,11 @@
       <c r="E111" t="n">
         <v>80.8</v>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2790,6 +3345,11 @@
       <c r="E112" t="n">
         <v>430.11</v>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2811,6 +3371,11 @@
       <c r="E113" t="n">
         <v>557.16</v>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2832,6 +3397,11 @@
       <c r="E114" t="n">
         <v>118.12</v>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2853,6 +3423,11 @@
       <c r="E115" t="n">
         <v>118.12</v>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2874,6 +3449,11 @@
       <c r="E116" t="n">
         <v>668.6900000000001</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2895,6 +3475,11 @@
       <c r="E117" t="n">
         <v>430.11</v>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2916,6 +3501,11 @@
       <c r="E118" t="n">
         <v>430.11</v>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2937,6 +3527,11 @@
       <c r="E119" t="n">
         <v>668.6900000000001</v>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2958,6 +3553,11 @@
       <c r="E120" t="n">
         <v>557.16</v>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2979,6 +3579,11 @@
       <c r="E121" t="n">
         <v>557.16</v>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3000,6 +3605,11 @@
       <c r="E122" t="n">
         <v>668.6900000000001</v>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3021,6 +3631,11 @@
       <c r="E123" t="n">
         <v>28.09</v>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3042,6 +3657,11 @@
       <c r="E124" t="n">
         <v>569.99</v>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3063,6 +3683,11 @@
       <c r="E125" t="n">
         <v>83.95999999999999</v>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3084,6 +3709,11 @@
       <c r="E126" t="n">
         <v>246.68</v>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3105,6 +3735,11 @@
       <c r="E127" t="n">
         <v>246.68</v>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3126,6 +3761,11 @@
       <c r="E128" t="n">
         <v>30.32</v>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3147,6 +3787,11 @@
       <c r="E129" t="n">
         <v>330.2</v>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3168,6 +3813,11 @@
       <c r="E130" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3189,6 +3839,11 @@
       <c r="E131" t="n">
         <v>330.2</v>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3210,6 +3865,11 @@
       <c r="E132" t="n">
         <v>330.2</v>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3231,6 +3891,11 @@
       <c r="E133" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3252,6 +3917,11 @@
       <c r="E134" t="n">
         <v>330.2</v>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3273,6 +3943,11 @@
       <c r="E135" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3294,6 +3969,11 @@
       <c r="E136" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3315,6 +3995,11 @@
       <c r="E137" t="n">
         <v>330.2</v>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3336,6 +4021,11 @@
       <c r="E138" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3357,6 +4047,11 @@
       <c r="E139" t="n">
         <v>98.43000000000001</v>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3378,6 +4073,11 @@
       <c r="E140" t="n">
         <v>29.11</v>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3399,6 +4099,11 @@
       <c r="E141" t="n">
         <v>408.11</v>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3420,6 +4125,11 @@
       <c r="E142" t="n">
         <v>128.84</v>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3441,6 +4151,11 @@
       <c r="E143" t="n">
         <v>128.84</v>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3462,6 +4177,11 @@
       <c r="E144" t="n">
         <v>128.84</v>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3483,6 +4203,11 @@
       <c r="E145" t="n">
         <v>128.84</v>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3504,6 +4229,11 @@
       <c r="E146" t="n">
         <v>128.84</v>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3525,6 +4255,11 @@
       <c r="E147" t="n">
         <v>144.22</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3546,6 +4281,11 @@
       <c r="E148" t="n">
         <v>144.22</v>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3567,6 +4307,11 @@
       <c r="E149" t="n">
         <v>101.29</v>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3588,6 +4333,11 @@
       <c r="E150" t="n">
         <v>101.29</v>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3609,6 +4359,11 @@
       <c r="E151" t="n">
         <v>119.53</v>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3630,6 +4385,11 @@
       <c r="E152" t="n">
         <v>119.53</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3651,6 +4411,11 @@
       <c r="E153" t="n">
         <v>67.19</v>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3672,6 +4437,11 @@
       <c r="E154" t="n">
         <v>67.19</v>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3693,6 +4463,11 @@
       <c r="E155" t="n">
         <v>67.19</v>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3714,6 +4489,11 @@
       <c r="E156" t="n">
         <v>67.19</v>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3735,6 +4515,11 @@
       <c r="E157" t="n">
         <v>67.19</v>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3756,6 +4541,11 @@
       <c r="E158" t="n">
         <v>67.19</v>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3777,6 +4567,11 @@
       <c r="E159" t="n">
         <v>67.19</v>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3798,6 +4593,11 @@
       <c r="E160" t="n">
         <v>67.19</v>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3819,6 +4619,11 @@
       <c r="E161" t="n">
         <v>164.32</v>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3840,6 +4645,11 @@
       <c r="E162" t="n">
         <v>164.32</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3861,6 +4671,11 @@
       <c r="E163" t="n">
         <v>164.32</v>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3882,6 +4697,11 @@
       <c r="E164" t="n">
         <v>344.3800000000001</v>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3903,6 +4723,11 @@
       <c r="E165" t="n">
         <v>81.13</v>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3924,6 +4749,11 @@
       <c r="E166" t="n">
         <v>414.61</v>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3945,6 +4775,11 @@
       <c r="E167" t="n">
         <v>414.61</v>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3966,6 +4801,11 @@
       <c r="E168" t="n">
         <v>414.61</v>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3987,6 +4827,11 @@
       <c r="E169" t="n">
         <v>414.61</v>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4008,6 +4853,11 @@
       <c r="E170" t="n">
         <v>414.61</v>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4029,6 +4879,11 @@
       <c r="E171" t="n">
         <v>265.1</v>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4050,6 +4905,11 @@
       <c r="E172" t="n">
         <v>265.1</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4071,6 +4931,11 @@
       <c r="E173" t="n">
         <v>276.12</v>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4092,6 +4957,11 @@
       <c r="E174" t="n">
         <v>1335.75</v>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4113,6 +4983,11 @@
       <c r="E175" t="n">
         <v>272.49</v>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4134,6 +5009,11 @@
       <c r="E176" t="n">
         <v>272.49</v>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4155,6 +5035,11 @@
       <c r="E177" t="n">
         <v>272.49</v>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4176,6 +5061,11 @@
       <c r="E178" t="n">
         <v>272.49</v>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4197,6 +5087,11 @@
       <c r="E179" t="n">
         <v>272.49</v>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4218,6 +5113,11 @@
       <c r="E180" t="n">
         <v>82.14999999999999</v>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4239,6 +5139,11 @@
       <c r="E181" t="n">
         <v>82.14999999999999</v>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4260,6 +5165,11 @@
       <c r="E182" t="n">
         <v>21.99</v>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4281,6 +5191,11 @@
       <c r="E183" t="n">
         <v>21.99</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4302,6 +5217,11 @@
       <c r="E184" t="n">
         <v>21.99</v>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4323,6 +5243,11 @@
       <c r="E185" t="n">
         <v>21.99</v>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4344,6 +5269,11 @@
       <c r="E186" t="n">
         <v>21.99</v>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4365,6 +5295,11 @@
       <c r="E187" t="n">
         <v>21.99</v>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4386,6 +5321,11 @@
       <c r="E188" t="n">
         <v>1297.44</v>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4407,6 +5347,11 @@
       <c r="E189" t="n">
         <v>3221.23</v>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4428,6 +5373,11 @@
       <c r="E190" t="n">
         <v>1512.51</v>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4449,6 +5399,11 @@
       <c r="E191" t="n">
         <v>463.43</v>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4470,6 +5425,11 @@
       <c r="E192" t="n">
         <v>551.99</v>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4491,6 +5451,11 @@
       <c r="E193" t="n">
         <v>551.99</v>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4512,6 +5477,11 @@
       <c r="E194" t="n">
         <v>1512.51</v>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4533,6 +5503,11 @@
       <c r="E195" t="n">
         <v>281.78</v>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4554,6 +5529,11 @@
       <c r="E196" t="n">
         <v>281.78</v>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4575,6 +5555,11 @@
       <c r="E197" t="n">
         <v>281.78</v>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4596,6 +5581,11 @@
       <c r="E198" t="n">
         <v>281.78</v>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4617,6 +5607,11 @@
       <c r="E199" t="n">
         <v>281.78</v>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4638,6 +5633,11 @@
       <c r="E200" t="n">
         <v>281.78</v>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4659,6 +5659,11 @@
       <c r="E201" t="n">
         <v>281.78</v>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4680,6 +5685,11 @@
       <c r="E202" t="n">
         <v>353.78</v>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4701,6 +5711,11 @@
       <c r="E203" t="n">
         <v>353.78</v>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4722,6 +5737,11 @@
       <c r="E204" t="n">
         <v>353.78</v>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4743,6 +5763,11 @@
       <c r="E205" t="n">
         <v>3097.6</v>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4764,6 +5789,11 @@
       <c r="E206" t="n">
         <v>3470.85</v>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4785,6 +5815,11 @@
       <c r="E207" t="n">
         <v>3470.85</v>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4806,6 +5841,11 @@
       <c r="E208" t="n">
         <v>3470.85</v>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4827,6 +5867,11 @@
       <c r="E209" t="n">
         <v>23.81</v>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4848,6 +5893,11 @@
       <c r="E210" t="n">
         <v>395.93</v>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4869,6 +5919,11 @@
       <c r="E211" t="n">
         <v>395.93</v>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4890,6 +5945,11 @@
       <c r="E212" t="n">
         <v>320</v>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4911,6 +5971,11 @@
       <c r="E213" t="n">
         <v>320</v>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4932,6 +5997,11 @@
       <c r="E214" t="n">
         <v>290.43</v>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4953,6 +6023,11 @@
       <c r="E215" t="n">
         <v>290.43</v>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4974,6 +6049,11 @@
       <c r="E216" t="n">
         <v>21.62</v>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4995,6 +6075,11 @@
       <c r="E217" t="n">
         <v>21.62</v>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5016,6 +6101,11 @@
       <c r="E218" t="n">
         <v>21.62</v>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5037,6 +6127,11 @@
       <c r="E219" t="n">
         <v>21.62</v>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5058,6 +6153,11 @@
       <c r="E220" t="n">
         <v>21.62</v>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5079,6 +6179,11 @@
       <c r="E221" t="n">
         <v>21.62</v>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5100,6 +6205,11 @@
       <c r="E222" t="n">
         <v>21.62</v>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5121,6 +6231,11 @@
       <c r="E223" t="n">
         <v>21.62</v>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5142,6 +6257,11 @@
       <c r="E224" t="n">
         <v>211.51</v>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5163,6 +6283,11 @@
       <c r="E225" t="n">
         <v>211.51</v>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5184,6 +6309,11 @@
       <c r="E226" t="n">
         <v>358.39</v>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5205,6 +6335,11 @@
       <c r="E227" t="n">
         <v>211.51</v>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5226,6 +6361,11 @@
       <c r="E228" t="n">
         <v>358.39</v>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5247,6 +6387,11 @@
       <c r="E229" t="n">
         <v>3056.37</v>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5268,6 +6413,11 @@
       <c r="E230" t="n">
         <v>3056.37</v>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5289,6 +6439,11 @@
       <c r="E231" t="n">
         <v>2794.97</v>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5310,6 +6465,11 @@
       <c r="E232" t="n">
         <v>2794.97</v>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5331,6 +6491,11 @@
       <c r="E233" t="n">
         <v>66.98999999999999</v>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5352,6 +6517,11 @@
       <c r="E234" t="n">
         <v>202.2</v>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5373,6 +6543,11 @@
       <c r="E235" t="n">
         <v>0</v>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5394,6 +6569,11 @@
       <c r="E236" t="n">
         <v>0</v>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5415,6 +6595,11 @@
       <c r="E237" t="n">
         <v>28.35</v>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5436,6 +6621,11 @@
       <c r="E238" t="n">
         <v>28.35</v>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5457,6 +6647,11 @@
       <c r="E239" t="n">
         <v>28.35</v>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5478,6 +6673,11 @@
       <c r="E240" t="n">
         <v>28.35</v>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5499,6 +6699,11 @@
       <c r="E241" t="n">
         <v>14.5</v>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5520,6 +6725,11 @@
       <c r="E242" t="n">
         <v>1060.65</v>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5541,6 +6751,11 @@
       <c r="E243" t="n">
         <v>317.72</v>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5562,6 +6777,11 @@
       <c r="E244" t="n">
         <v>445.6</v>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5583,6 +6803,11 @@
       <c r="E245" t="n">
         <v>445.6</v>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5604,6 +6829,11 @@
       <c r="E246" t="n">
         <v>670.8</v>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5625,6 +6855,11 @@
       <c r="E247" t="n">
         <v>38.26</v>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5646,6 +6881,11 @@
       <c r="E248" t="n">
         <v>38.26</v>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5667,6 +6907,11 @@
       <c r="E249" t="n">
         <v>50.96</v>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5688,6 +6933,11 @@
       <c r="E250" t="n">
         <v>50.96</v>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5709,6 +6959,11 @@
       <c r="E251" t="n">
         <v>133.07</v>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5730,6 +6985,11 @@
       <c r="E252" t="n">
         <v>68.39</v>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5751,6 +7011,11 @@
       <c r="E253" t="n">
         <v>363.56</v>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5772,6 +7037,11 @@
       <c r="E254" t="n">
         <v>363.56</v>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5793,6 +7063,11 @@
       <c r="E255" t="n">
         <v>363.56</v>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5814,6 +7089,11 @@
       <c r="E256" t="n">
         <v>1404.01</v>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5835,6 +7115,11 @@
       <c r="E257" t="n">
         <v>864.74</v>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5856,6 +7141,11 @@
       <c r="E258" t="n">
         <v>88.12</v>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5877,6 +7167,11 @@
       <c r="E259" t="n">
         <v>88.12</v>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5898,6 +7193,11 @@
       <c r="E260" t="n">
         <v>389.75</v>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5919,6 +7219,11 @@
       <c r="E261" t="n">
         <v>63.12</v>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5940,6 +7245,11 @@
       <c r="E262" t="n">
         <v>63.12</v>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5961,6 +7271,11 @@
       <c r="E263" t="n">
         <v>63.12</v>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5982,6 +7297,11 @@
       <c r="E264" t="n">
         <v>153.98</v>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6003,6 +7323,11 @@
       <c r="E265" t="n">
         <v>153.98</v>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6024,6 +7349,11 @@
       <c r="E266" t="n">
         <v>137.64</v>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6045,6 +7375,11 @@
       <c r="E267" t="n">
         <v>1925.17</v>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6066,6 +7401,11 @@
       <c r="E268" t="n">
         <v>881.16</v>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6087,6 +7427,11 @@
       <c r="E269" t="n">
         <v>353.72</v>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6108,6 +7453,11 @@
       <c r="E270" t="n">
         <v>33.23</v>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6129,6 +7479,11 @@
       <c r="E271" t="n">
         <v>33.23</v>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6150,6 +7505,11 @@
       <c r="E272" t="n">
         <v>33.23</v>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6171,6 +7531,11 @@
       <c r="E273" t="n">
         <v>33.23</v>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6192,6 +7557,11 @@
       <c r="E274" t="n">
         <v>335.96</v>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6213,6 +7583,11 @@
       <c r="E275" t="n">
         <v>323.78</v>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6234,6 +7609,11 @@
       <c r="E276" t="n">
         <v>103.06</v>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6255,6 +7635,11 @@
       <c r="E277" t="n">
         <v>1672.2</v>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6276,6 +7661,11 @@
       <c r="E278" t="n">
         <v>430.62</v>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6297,6 +7687,11 @@
       <c r="E279" t="n">
         <v>79.53</v>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6318,6 +7713,11 @@
       <c r="E280" t="n">
         <v>79.53</v>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6339,6 +7739,11 @@
       <c r="E281" t="n">
         <v>114.91</v>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6360,6 +7765,11 @@
       <c r="E282" t="n">
         <v>1832.52</v>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6381,6 +7791,11 @@
       <c r="E283" t="n">
         <v>66.45999999999999</v>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6402,6 +7817,11 @@
       <c r="E284" t="n">
         <v>96.59999999999999</v>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6423,6 +7843,11 @@
       <c r="E285" t="n">
         <v>96.59999999999999</v>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6444,6 +7869,11 @@
       <c r="E286" t="n">
         <v>96.59999999999999</v>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6465,6 +7895,11 @@
       <c r="E287" t="n">
         <v>1832.52</v>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6486,6 +7921,11 @@
       <c r="E288" t="n">
         <v>1832.52</v>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6507,6 +7947,11 @@
       <c r="E289" t="n">
         <v>59.74</v>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6528,6 +7973,11 @@
       <c r="E290" t="n">
         <v>59.74</v>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6549,6 +7999,11 @@
       <c r="E291" t="n">
         <v>158.15</v>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6570,6 +8025,11 @@
       <c r="E292" t="n">
         <v>158.15</v>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6591,6 +8051,11 @@
       <c r="E293" t="n">
         <v>158.15</v>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6612,6 +8077,11 @@
       <c r="E294" t="n">
         <v>98.15000000000001</v>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6633,6 +8103,11 @@
       <c r="E295" t="n">
         <v>453.44</v>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6654,6 +8129,11 @@
       <c r="E296" t="n">
         <v>33.23</v>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6675,6 +8155,11 @@
       <c r="E297" t="n">
         <v>65.09999999999999</v>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6696,6 +8181,11 @@
       <c r="E298" t="n">
         <v>65.09999999999999</v>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6717,6 +8207,11 @@
       <c r="E299" t="n">
         <v>55.48</v>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6738,6 +8233,11 @@
       <c r="E300" t="n">
         <v>68.39</v>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6759,6 +8259,11 @@
       <c r="E301" t="n">
         <v>31.83</v>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6780,6 +8285,11 @@
       <c r="E302" t="n">
         <v>31.83</v>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6801,6 +8311,11 @@
       <c r="E303" t="n">
         <v>31.83</v>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6822,6 +8337,11 @@
       <c r="E304" t="n">
         <v>57.54</v>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6843,6 +8363,11 @@
       <c r="E305" t="n">
         <v>75.63</v>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6864,6 +8389,11 @@
       <c r="E306" t="n">
         <v>75.63</v>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6885,6 +8415,11 @@
       <c r="E307" t="n">
         <v>75.63</v>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6906,6 +8441,11 @@
       <c r="E308" t="n">
         <v>25.02</v>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6927,6 +8467,11 @@
       <c r="E309" t="n">
         <v>25.02</v>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6948,6 +8493,11 @@
       <c r="E310" t="n">
         <v>47.05</v>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6969,6 +8519,11 @@
       <c r="E311" t="n">
         <v>25.02</v>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6990,6 +8545,11 @@
       <c r="E312" t="n">
         <v>25.02</v>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7011,6 +8571,11 @@
       <c r="E313" t="n">
         <v>25.02</v>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7032,6 +8597,11 @@
       <c r="E314" t="n">
         <v>4055.97</v>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7053,6 +8623,11 @@
       <c r="E315" t="n">
         <v>81.97999999999999</v>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7074,6 +8649,11 @@
       <c r="E316" t="n">
         <v>5131.04</v>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7096,6 +8676,11 @@
       <c r="E317" t="n">
         <v>3415.81</v>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7117,6 +8702,11 @@
       <c r="E318" t="n">
         <v>2892.929999999999</v>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7138,6 +8728,11 @@
       <c r="E319" t="n">
         <v>3349.83</v>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7159,6 +8754,11 @@
       <c r="E320" t="n">
         <v>1837.4</v>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7180,6 +8780,11 @@
       <c r="E321" t="n">
         <v>1837.4</v>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7201,6 +8806,11 @@
       <c r="E322" t="n">
         <v>15.94</v>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7222,6 +8832,11 @@
       <c r="E323" t="n">
         <v>15.94</v>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7243,6 +8858,11 @@
       <c r="E324" t="n">
         <v>12.76</v>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7264,6 +8884,11 @@
       <c r="E325" t="n">
         <v>27.25</v>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7285,6 +8910,11 @@
       <c r="E326" t="n">
         <v>27.25</v>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7306,6 +8936,11 @@
       <c r="E327" t="n">
         <v>27.25</v>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7327,6 +8962,11 @@
       <c r="E328" t="n">
         <v>72.28</v>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7348,6 +8988,11 @@
       <c r="E329" t="n">
         <v>72.28</v>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7369,6 +9014,11 @@
       <c r="E330" t="n">
         <v>373.94</v>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7390,6 +9040,11 @@
       <c r="E331" t="n">
         <v>10.46</v>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7411,6 +9066,11 @@
       <c r="E332" t="n">
         <v>10.46</v>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7432,6 +9092,11 @@
       <c r="E333" t="n">
         <v>10.46</v>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7453,6 +9118,11 @@
       <c r="E334" t="n">
         <v>85.91</v>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7474,6 +9144,11 @@
       <c r="E335" t="n">
         <v>85.91</v>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7495,6 +9170,11 @@
       <c r="E336" t="n">
         <v>85.91</v>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7516,6 +9196,11 @@
       <c r="E337" t="n">
         <v>85.91</v>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7537,6 +9222,11 @@
       <c r="E338" t="n">
         <v>85.91</v>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7558,6 +9248,11 @@
       <c r="E339" t="n">
         <v>85.91</v>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7579,6 +9274,11 @@
       <c r="E340" t="n">
         <v>137605.05</v>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7600,6 +9300,11 @@
       <c r="E341" t="n">
         <v>266.94</v>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7621,6 +9326,11 @@
       <c r="E342" t="n">
         <v>87.09</v>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7642,6 +9352,11 @@
       <c r="E343" t="n">
         <v>83.34999999999999</v>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7663,6 +9378,11 @@
       <c r="E344" t="n">
         <v>83.34999999999999</v>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -7684,6 +9404,11 @@
       <c r="E345" t="n">
         <v>83.34999999999999</v>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7705,6 +9430,11 @@
       <c r="E346" t="n">
         <v>1922.07</v>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7726,6 +9456,11 @@
       <c r="E347" t="n">
         <v>55.53</v>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -7747,6 +9482,11 @@
       <c r="E348" t="n">
         <v>218.07</v>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7768,6 +9508,11 @@
       <c r="E349" t="n">
         <v>361.07</v>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7789,6 +9534,11 @@
       <c r="E350" t="n">
         <v>11646.8</v>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7810,6 +9560,11 @@
       <c r="E351" t="n">
         <v>8880.219999999999</v>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7831,6 +9586,11 @@
       <c r="E352" t="n">
         <v>13578.8</v>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7852,6 +9612,11 @@
       <c r="E353" t="n">
         <v>263.86</v>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7873,6 +9638,11 @@
       <c r="E354" t="n">
         <v>12.7</v>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -7894,6 +9664,11 @@
       <c r="E355" t="n">
         <v>158.15</v>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7915,6 +9690,11 @@
       <c r="E356" t="n">
         <v>158.15</v>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -7936,6 +9716,11 @@
       <c r="E357" t="n">
         <v>158.15</v>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -7957,6 +9742,11 @@
       <c r="E358" t="n">
         <v>158.15</v>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7978,6 +9768,11 @@
       <c r="E359" t="n">
         <v>158.15</v>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7999,6 +9794,11 @@
       <c r="E360" t="n">
         <v>158.15</v>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8020,6 +9820,11 @@
       <c r="E361" t="n">
         <v>158.15</v>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8041,6 +9846,11 @@
       <c r="E362" t="n">
         <v>158.15</v>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8062,6 +9872,11 @@
       <c r="E363" t="n">
         <v>25827.22</v>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8083,6 +9898,11 @@
       <c r="E364" t="n">
         <v>24976.73</v>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8104,6 +9924,11 @@
       <c r="E365" t="n">
         <v>288.22</v>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8125,6 +9950,11 @@
       <c r="E366" t="n">
         <v>288.22</v>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8146,6 +9976,11 @@
       <c r="E367" t="n">
         <v>22.85</v>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8167,6 +10002,11 @@
       <c r="E368" t="n">
         <v>25827.22</v>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8188,6 +10028,11 @@
       <c r="E369" t="n">
         <v>1651.67</v>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8209,6 +10054,11 @@
       <c r="E370" t="n">
         <v>98.93000000000001</v>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8230,6 +10080,11 @@
       <c r="E371" t="n">
         <v>286.74</v>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8251,6 +10106,11 @@
       <c r="E372" t="n">
         <v>286.74</v>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -8272,6 +10132,11 @@
       <c r="E373" t="n">
         <v>286.74</v>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -8293,6 +10158,11 @@
       <c r="E374" t="n">
         <v>297.56</v>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -8314,6 +10184,11 @@
       <c r="E375" t="n">
         <v>297.56</v>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8335,6 +10210,11 @@
       <c r="E376" t="n">
         <v>297.56</v>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -8356,6 +10236,11 @@
       <c r="E377" t="n">
         <v>297.56</v>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8377,6 +10262,11 @@
       <c r="E378" t="n">
         <v>297.56</v>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8398,6 +10288,11 @@
       <c r="E379" t="n">
         <v>297.56</v>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8419,6 +10314,11 @@
       <c r="E380" t="n">
         <v>297.56</v>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8440,6 +10340,11 @@
       <c r="E381" t="n">
         <v>306.03</v>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8461,6 +10366,11 @@
       <c r="E382" t="n">
         <v>279.94</v>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8481,6 +10391,11 @@
       </c>
       <c r="E383" t="n">
         <v>4055.97</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
       </c>
     </row>
     <row r="384">
@@ -8505,6 +10420,11 @@
       <c r="E384" t="n">
         <v>3303.21</v>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8526,6 +10446,11 @@
       <c r="E385" t="n">
         <v>7.95</v>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8547,6 +10472,11 @@
       <c r="E386" t="n">
         <v>7.95</v>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8568,6 +10498,11 @@
       <c r="E387" t="n">
         <v>279.63</v>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8589,6 +10524,11 @@
       <c r="E388" t="n">
         <v>33.23</v>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8610,6 +10550,11 @@
       <c r="E389" t="n">
         <v>33.23</v>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -8631,6 +10576,11 @@
       <c r="E390" t="n">
         <v>33.23</v>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8652,6 +10602,11 @@
       <c r="E391" t="n">
         <v>33.23</v>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8673,6 +10628,11 @@
       <c r="E392" t="n">
         <v>33.23</v>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8694,6 +10654,11 @@
       <c r="E393" t="n">
         <v>33.23</v>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -8715,6 +10680,11 @@
       <c r="E394" t="n">
         <v>95.84</v>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8736,6 +10706,11 @@
       <c r="E395" t="n">
         <v>105.63</v>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -8757,6 +10732,11 @@
       <c r="E396" t="n">
         <v>105.63</v>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -8778,6 +10758,11 @@
       <c r="E397" t="n">
         <v>105.63</v>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8799,6 +10784,11 @@
       <c r="E398" t="n">
         <v>105.63</v>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -8820,6 +10810,11 @@
       <c r="E399" t="n">
         <v>105.63</v>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -8841,6 +10836,11 @@
       <c r="E400" t="n">
         <v>105.63</v>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -8862,6 +10862,11 @@
       <c r="E401" t="n">
         <v>105.63</v>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -8883,6 +10888,11 @@
       <c r="E402" t="n">
         <v>266.15</v>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -8904,6 +10914,11 @@
       <c r="E403" t="n">
         <v>266.15</v>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -8925,6 +10940,11 @@
       <c r="E404" t="n">
         <v>266.15</v>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -8946,6 +10966,11 @@
       <c r="E405" t="n">
         <v>554.64</v>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -8967,6 +10992,11 @@
       <c r="E406" t="n">
         <v>676.8</v>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -8988,6 +11018,11 @@
       <c r="E407" t="n">
         <v>676.8</v>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9009,6 +11044,11 @@
       <c r="E408" t="n">
         <v>493.55</v>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9030,6 +11070,11 @@
       <c r="E409" t="n">
         <v>554.64</v>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9051,6 +11096,11 @@
       <c r="E410" t="n">
         <v>676.8</v>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -9072,6 +11122,11 @@
       <c r="E411" t="n">
         <v>100.61</v>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9093,6 +11148,11 @@
       <c r="E412" t="n">
         <v>100.61</v>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -9114,6 +11174,11 @@
       <c r="E413" t="n">
         <v>100.61</v>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -9135,6 +11200,11 @@
       <c r="E414" t="n">
         <v>100.61</v>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -9157,6 +11227,11 @@
       <c r="E415" t="n">
         <v>847.8399999999999</v>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9179,6 +11254,11 @@
       <c r="E416" t="n">
         <v>1167.74</v>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -9200,6 +11280,11 @@
       <c r="E417" t="n">
         <v>11.92</v>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -9221,6 +11306,11 @@
       <c r="E418" t="n">
         <v>11.92</v>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -9242,6 +11332,11 @@
       <c r="E419" t="n">
         <v>11.92</v>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -9263,6 +11358,11 @@
       <c r="E420" t="n">
         <v>727.51</v>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9284,6 +11384,11 @@
       <c r="E421" t="n">
         <v>874.72</v>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -9305,6 +11410,11 @@
       <c r="E422" t="n">
         <v>72.5</v>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9326,6 +11436,11 @@
       <c r="E423" t="n">
         <v>208.57</v>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -9347,6 +11462,11 @@
       <c r="E424" t="n">
         <v>337.9</v>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -9368,6 +11488,11 @@
       <c r="E425" t="n">
         <v>73.91</v>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9389,6 +11514,11 @@
       <c r="E426" t="n">
         <v>73.91</v>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -9410,6 +11540,11 @@
       <c r="E427" t="n">
         <v>73.91</v>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -9431,6 +11566,11 @@
       <c r="E428" t="n">
         <v>73.91</v>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9452,6 +11592,11 @@
       <c r="E429" t="n">
         <v>73.91</v>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9473,6 +11618,11 @@
       <c r="E430" t="n">
         <v>73.91</v>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9494,6 +11644,11 @@
       <c r="E431" t="n">
         <v>114.92</v>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9515,6 +11670,11 @@
       <c r="E432" t="n">
         <v>987.73</v>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9536,6 +11696,11 @@
       <c r="E433" t="n">
         <v>208.14</v>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9557,6 +11722,11 @@
       <c r="E434" t="n">
         <v>289.09</v>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -9578,6 +11748,11 @@
       <c r="E435" t="n">
         <v>113.61</v>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -9599,6 +11774,11 @@
       <c r="E436" t="n">
         <v>436.24</v>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -9620,6 +11800,11 @@
       <c r="E437" t="n">
         <v>436.24</v>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -9641,6 +11826,11 @@
       <c r="E438" t="n">
         <v>436.24</v>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -9662,6 +11852,11 @@
       <c r="E439" t="n">
         <v>436.24</v>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -9683,6 +11878,11 @@
       <c r="E440" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -9704,6 +11904,11 @@
       <c r="E441" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -9725,6 +11930,11 @@
       <c r="E442" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -9746,6 +11956,11 @@
       <c r="E443" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -9767,6 +11982,11 @@
       <c r="E444" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -9788,6 +12008,11 @@
       <c r="E445" t="n">
         <v>305.42</v>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9809,6 +12034,11 @@
       <c r="E446" t="n">
         <v>791.04</v>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -9830,6 +12060,11 @@
       <c r="E447" t="n">
         <v>488.67</v>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -9851,6 +12086,11 @@
       <c r="E448" t="n">
         <v>694.35</v>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -9872,6 +12112,11 @@
       <c r="E449" t="n">
         <v>694.35</v>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -9893,6 +12138,11 @@
       <c r="E450" t="n">
         <v>516.77</v>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -9914,6 +12164,11 @@
       <c r="E451" t="n">
         <v>210.74</v>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -9935,6 +12190,11 @@
       <c r="E452" t="n">
         <v>263.57</v>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -9956,6 +12216,11 @@
       <c r="E453" t="n">
         <v>263.57</v>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9977,6 +12242,11 @@
       <c r="E454" t="n">
         <v>263.57</v>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -9998,6 +12268,11 @@
       <c r="E455" t="n">
         <v>13.68</v>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -10019,6 +12294,11 @@
       <c r="E456" t="n">
         <v>13.68</v>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10040,6 +12320,11 @@
       <c r="E457" t="n">
         <v>13.68</v>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -10061,6 +12346,11 @@
       <c r="E458" t="n">
         <v>204.02</v>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -10082,6 +12372,11 @@
       <c r="E459" t="n">
         <v>204.02</v>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -10103,6 +12398,11 @@
       <c r="E460" t="n">
         <v>126.24</v>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10123,6 +12423,11 @@
       </c>
       <c r="E461" t="n">
         <v>232.12</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -10147,6 +12452,11 @@
       <c r="E462" t="n">
         <v>4576.96</v>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -10169,6 +12479,11 @@
       <c r="E463" t="n">
         <v>2510.2</v>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -10190,6 +12505,11 @@
       <c r="E464" t="n">
         <v>13.68</v>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10211,6 +12531,11 @@
       <c r="E465" t="n">
         <v>13.68</v>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -10232,6 +12557,11 @@
       <c r="E466" t="n">
         <v>13.68</v>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -10253,6 +12583,11 @@
       <c r="E467" t="n">
         <v>13.68</v>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -10274,6 +12609,11 @@
       <c r="E468" t="n">
         <v>13.68</v>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -10295,6 +12635,11 @@
       <c r="E469" t="n">
         <v>13.68</v>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -10316,6 +12661,11 @@
       <c r="E470" t="n">
         <v>13.68</v>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10337,6 +12687,11 @@
       <c r="E471" t="n">
         <v>13.68</v>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10358,6 +12713,11 @@
       <c r="E472" t="n">
         <v>255.33</v>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -10379,6 +12739,11 @@
       <c r="E473" t="n">
         <v>1221.69</v>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -10400,6 +12765,11 @@
       <c r="E474" t="n">
         <v>258.87</v>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -10421,6 +12791,11 @@
       <c r="E475" t="n">
         <v>1832.52</v>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -10442,6 +12817,11 @@
       <c r="E476" t="n">
         <v>1832.52</v>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10463,6 +12843,11 @@
       <c r="E477" t="n">
         <v>752.5499999999998</v>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -10484,6 +12869,11 @@
       <c r="E478" t="n">
         <v>960.03</v>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10505,6 +12895,11 @@
       <c r="E479" t="n">
         <v>1280.9</v>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10526,6 +12921,11 @@
       <c r="E480" t="n">
         <v>68.23999999999999</v>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -10547,6 +12947,11 @@
       <c r="E481" t="n">
         <v>68.23999999999999</v>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -10568,6 +12973,11 @@
       <c r="E482" t="n">
         <v>232.12</v>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -10589,6 +12999,11 @@
       <c r="E483" t="n">
         <v>232.12</v>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -10610,6 +13025,11 @@
       <c r="E484" t="n">
         <v>254103.65</v>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -10631,6 +13051,11 @@
       <c r="E485" t="n">
         <v>441.29</v>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -10652,6 +13077,11 @@
       <c r="E486" t="n">
         <v>73.91</v>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -10673,6 +13103,11 @@
       <c r="E487" t="n">
         <v>73.91</v>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -10694,6 +13129,11 @@
       <c r="E488" t="n">
         <v>73.91</v>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -10715,6 +13155,11 @@
       <c r="E489" t="n">
         <v>73.91</v>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -10736,6 +13181,11 @@
       <c r="E490" t="n">
         <v>73.91</v>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -10757,6 +13207,11 @@
       <c r="E491" t="n">
         <v>73.91</v>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -10778,6 +13233,11 @@
       <c r="E492" t="n">
         <v>0</v>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -10799,6 +13259,11 @@
       <c r="E493" t="n">
         <v>791.04</v>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -10820,6 +13285,11 @@
       <c r="E494" t="n">
         <v>144.22</v>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -10841,6 +13311,11 @@
       <c r="E495" t="n">
         <v>144.22</v>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -10862,6 +13337,11 @@
       <c r="E496" t="n">
         <v>483.32</v>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -10883,6 +13363,11 @@
       <c r="E497" t="n">
         <v>791.04</v>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -10904,6 +13389,11 @@
       <c r="E498" t="n">
         <v>260.22</v>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -10925,6 +13415,11 @@
       <c r="E499" t="n">
         <v>752.5499999999998</v>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -10946,6 +13441,11 @@
       <c r="E500" t="n">
         <v>40.85</v>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -10967,6 +13467,11 @@
       <c r="E501" t="n">
         <v>40.85</v>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -10988,6 +13493,11 @@
       <c r="E502" t="n">
         <v>40.85</v>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -11009,6 +13519,11 @@
       <c r="E503" t="n">
         <v>40.85</v>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11030,6 +13545,11 @@
       <c r="E504" t="n">
         <v>40.85</v>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11051,6 +13571,11 @@
       <c r="E505" t="n">
         <v>40.85</v>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11072,6 +13597,11 @@
       <c r="E506" t="n">
         <v>40.85</v>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11093,6 +13623,11 @@
       <c r="E507" t="n">
         <v>2477.7</v>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11114,6 +13649,11 @@
       <c r="E508" t="n">
         <v>59709.45</v>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -11135,6 +13675,11 @@
       <c r="E509" t="n">
         <v>987.12</v>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -11156,6 +13701,11 @@
       <c r="E510" t="n">
         <v>2086.63</v>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -11177,6 +13727,11 @@
       <c r="E511" t="n">
         <v>982.2199999999999</v>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -11198,6 +13753,11 @@
       <c r="E512" t="n">
         <v>2697.46</v>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -11219,6 +13779,11 @@
       <c r="E513" t="n">
         <v>1104.39</v>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -11240,6 +13805,11 @@
       <c r="E514" t="n">
         <v>161.87</v>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -11261,6 +13831,11 @@
       <c r="E515" t="n">
         <v>3304.23</v>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -11281,6 +13856,11 @@
       </c>
       <c r="E516" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
       </c>
     </row>
     <row r="517">
@@ -11305,6 +13885,11 @@
       <c r="E517" t="n">
         <v>1905.36</v>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -11326,6 +13911,11 @@
       <c r="E518" t="n">
         <v>204.02</v>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -11347,6 +13937,11 @@
       <c r="E519" t="n">
         <v>204.02</v>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -11368,6 +13963,11 @@
       <c r="E520" t="n">
         <v>833.71</v>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -11389,6 +13989,11 @@
       <c r="E521" t="n">
         <v>833.71</v>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -11410,6 +14015,11 @@
       <c r="E522" t="n">
         <v>2286</v>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -11431,6 +14041,11 @@
       <c r="E523" t="n">
         <v>204.02</v>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -11452,6 +14067,11 @@
       <c r="E524" t="n">
         <v>8063.07</v>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -11473,6 +14093,11 @@
       <c r="E525" t="n">
         <v>165.24</v>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -11494,6 +14119,11 @@
       <c r="E526" t="n">
         <v>3425.39</v>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -11515,6 +14145,11 @@
       <c r="E527" t="n">
         <v>111.04</v>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -11536,6 +14171,11 @@
       <c r="E528" t="n">
         <v>111.04</v>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -11557,6 +14197,11 @@
       <c r="E529" t="n">
         <v>323.78</v>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -11578,6 +14223,11 @@
       <c r="E530" t="n">
         <v>4657.03</v>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -11599,6 +14249,11 @@
       <c r="E531" t="n">
         <v>128.52</v>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -11620,6 +14275,11 @@
       <c r="E532" t="n">
         <v>4525.09</v>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -11642,6 +14302,11 @@
       <c r="E533" t="n">
         <v>297.56</v>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -11664,6 +14329,11 @@
       <c r="E534" t="n">
         <v>297.56</v>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -11685,6 +14355,11 @@
       <c r="E535" t="n">
         <v>42.85</v>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -11706,6 +14381,11 @@
       <c r="E536" t="n">
         <v>42.85</v>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -11727,6 +14407,11 @@
       <c r="E537" t="n">
         <v>265.11</v>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -11748,6 +14433,11 @@
       <c r="E538" t="n">
         <v>295.64</v>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -11769,6 +14459,11 @@
       <c r="E539" t="n">
         <v>18232.31</v>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -11790,6 +14485,11 @@
       <c r="E540" t="n">
         <v>832.33</v>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -11811,6 +14511,11 @@
       <c r="E541" t="n">
         <v>99.70999999999999</v>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -11832,6 +14537,11 @@
       <c r="E542" t="n">
         <v>99.70999999999999</v>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -11853,6 +14563,11 @@
       <c r="E543" t="n">
         <v>99.70999999999999</v>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -11874,6 +14589,11 @@
       <c r="E544" t="n">
         <v>35.91</v>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -11895,6 +14615,11 @@
       <c r="E545" t="n">
         <v>35.91</v>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -11916,6 +14641,11 @@
       <c r="E546" t="n">
         <v>35.91</v>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -11937,6 +14667,11 @@
       <c r="E547" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -11958,6 +14693,11 @@
       <c r="E548" t="n">
         <v>1045.76</v>
       </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -11979,6 +14719,11 @@
       <c r="E549" t="n">
         <v>751.63</v>
       </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -12000,6 +14745,11 @@
       <c r="E550" t="n">
         <v>337.79</v>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -12021,6 +14771,11 @@
       <c r="E551" t="n">
         <v>2107.39</v>
       </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -12042,6 +14797,11 @@
       <c r="E552" t="n">
         <v>563.5599999999999</v>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -12063,6 +14823,11 @@
       <c r="E553" t="n">
         <v>11133.27</v>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -12084,6 +14849,11 @@
       <c r="E554" t="n">
         <v>10412.35</v>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -12105,6 +14875,11 @@
       <c r="E555" t="n">
         <v>3399.93</v>
       </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -12126,6 +14901,11 @@
       <c r="E556" t="n">
         <v>1464.48</v>
       </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -12146,6 +14926,11 @@
       </c>
       <c r="E557" t="n">
         <v>57350.93</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
       </c>
     </row>
   </sheetData>
